--- a/diagram/HaMinhTien_Requeirment.xlsx
+++ b/diagram/HaMinhTien_Requeirment.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zane\Documents\GitHub\blogVanLang\diagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zanepc\Documents\GitHub\blogVanLang\diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91C13F8-7582-402D-8908-9733C234C833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698F7BAC-51F4-4AAD-9DD3-6B9C0AA77A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13524" yWindow="0" windowWidth="17040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
   <si>
     <t>TÍNH NĂNG         (FEATURE)</t>
   </si>
@@ -191,13 +205,166 @@
   </si>
   <si>
     <t>Cập nhật firmware</t>
+  </si>
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>What to do</t>
+  </si>
+  <si>
+    <t>Estimation</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>(hrs)</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>REQUIREMENTS ENGINEERING</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Tìm hiểu về Framework Django</t>
+  </si>
+  <si>
+    <t>Tìm hiểu về tổng quan Framework Django, mô hình của Django và các bước thực hiện Đồ án với Django.</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện</t>
+  </si>
+  <si>
+    <t>Liên hệ với Mentor</t>
+  </si>
+  <si>
+    <t>Liên hệ Mentor và gặp vào ngày 14/2/2023</t>
+  </si>
+  <si>
+    <t>Đồ án tốt nghiệp</t>
+  </si>
+  <si>
+    <t>Liên lạc với Mentor và triển khai thực hiện đồ án tốt nghiệp</t>
+  </si>
+  <si>
+    <t>Đã chốt với Mentor về đồ án tốt nghiệp</t>
+  </si>
+  <si>
+    <t>Thực hiện và nộp Đề cương khoá luận cho bộ môn</t>
+  </si>
+  <si>
+    <t>Liên hệ Mentor để thực hiện đề cương.</t>
+  </si>
+  <si>
+    <t>Mentor hướng dẫn cách viết đề cương.</t>
+  </si>
+  <si>
+    <t>Phân chia các giai đoạn</t>
+  </si>
+  <si>
+    <t>Framework Django là gì ?</t>
+  </si>
+  <si>
+    <t>Quản lý trường hợp là gì ?</t>
+  </si>
+  <si>
+    <t>Django có cấu trúc để xây dựng ERP như các framework có sẵn không ?</t>
+  </si>
+  <si>
+    <t>Mô hình, cấu trúc Django</t>
+  </si>
+  <si>
+    <t>Tìm hiểu về Front-end</t>
+  </si>
+  <si>
+    <t>Tổng quan về Front-end</t>
+  </si>
+  <si>
+    <t>HTML là gì ? Cấu trúc cơ bản</t>
+  </si>
+  <si>
+    <t>CSS là gì?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSS Selector </t>
+  </si>
+  <si>
+    <t>Bootsrap5</t>
+  </si>
+  <si>
+    <t>Những bước thực hiện viết một website</t>
+  </si>
+  <si>
+    <t>Javascript là gì ?</t>
+  </si>
+  <si>
+    <t>Viết một giao diện cần những yếu tố gì ?</t>
+  </si>
+  <si>
+    <t>Thiết lập SASS để cấu hình mặc định CSS cho dự án</t>
+  </si>
+  <si>
+    <t>Cài đặt Bootstrap5</t>
+  </si>
+  <si>
+    <t>Viết HTML để xây dựng Website</t>
+  </si>
+  <si>
+    <t>Sử dụng cấu trúc kế thừa để sử dụng với Django.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng quan về Front-end và cách để xây dựng website </t>
+  </si>
+  <si>
+    <t>Sử dụng Bootstrap5 để tối ưu trong việc xây dựng wesbite.</t>
+  </si>
+  <si>
+    <t>Thêm nội dung vào đề cương tốt nghiệp.</t>
+  </si>
+  <si>
+    <t>Khó khăn trong việc tiếp thu</t>
+  </si>
+  <si>
+    <t>Thiết lập cấu hình mặc định.</t>
+  </si>
+  <si>
+    <t>Trang chủ</t>
+  </si>
+  <si>
+    <t>Thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +389,46 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,10 +465,120 @@
         <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -276,7 +591,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -291,6 +606,104 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -523,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,4 +1264,2476 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A5D836-F362-4798-BA98-786BDAE98677}">
+  <dimension ref="A7:V93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="35.77734375" style="11" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="11" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" style="40" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="41.6640625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="11"/>
+    <col min="11" max="11" width="18.5546875" style="11" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+    </row>
+    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+    </row>
+    <row r="17" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>1</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="34">
+        <v>44970</v>
+      </c>
+      <c r="D17" s="34">
+        <v>44976</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="34">
+        <v>44970</v>
+      </c>
+      <c r="G17" s="34">
+        <v>44976</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="33"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="34">
+        <v>44970</v>
+      </c>
+      <c r="D18" s="34">
+        <v>44971</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="34">
+        <v>44970</v>
+      </c>
+      <c r="G18" s="34">
+        <v>44971</v>
+      </c>
+      <c r="H18" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="33"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
+        <v>1.2</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="34">
+        <v>44970</v>
+      </c>
+      <c r="D19" s="34">
+        <v>44971</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="34">
+        <v>44970</v>
+      </c>
+      <c r="G19" s="34">
+        <v>44971</v>
+      </c>
+      <c r="H19" s="35"/>
+      <c r="I19" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+    </row>
+    <row r="20" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
+        <v>2</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="34">
+        <v>44977</v>
+      </c>
+      <c r="D20" s="34">
+        <v>44983</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="34">
+        <v>44977</v>
+      </c>
+      <c r="G20" s="34">
+        <v>44983</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="34">
+        <v>44977</v>
+      </c>
+      <c r="D21" s="34">
+        <v>44978</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="34">
+        <v>44977</v>
+      </c>
+      <c r="G21" s="34">
+        <v>44978</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="33"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+    </row>
+    <row r="27" spans="1:22" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="32">
+        <v>3</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="34">
+        <v>44991</v>
+      </c>
+      <c r="D27" s="34">
+        <v>44997</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="34">
+        <v>44991</v>
+      </c>
+      <c r="G27" s="34">
+        <v>44997</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27" s="33"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="32">
+        <v>3.1</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="34">
+        <v>44991</v>
+      </c>
+      <c r="D28" s="34">
+        <v>44992</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="34">
+        <v>44991</v>
+      </c>
+      <c r="G28" s="34">
+        <v>44992</v>
+      </c>
+      <c r="H28" s="35"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="33"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="32">
+        <v>3.2</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="34">
+        <v>44992</v>
+      </c>
+      <c r="D29" s="34">
+        <v>44993</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="34">
+        <v>44992</v>
+      </c>
+      <c r="G29" s="34">
+        <v>44993</v>
+      </c>
+      <c r="H29" s="35"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="33"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+    </row>
+    <row r="30" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="32">
+        <v>3.3</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="34">
+        <v>44993</v>
+      </c>
+      <c r="D30" s="34">
+        <v>44995</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="34">
+        <v>44993</v>
+      </c>
+      <c r="G30" s="34">
+        <v>44995</v>
+      </c>
+      <c r="H30" s="35"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30" s="33"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="32">
+        <v>3.4</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="34">
+        <v>44996</v>
+      </c>
+      <c r="D31" s="34">
+        <v>44997</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="34">
+        <v>44996</v>
+      </c>
+      <c r="G31" s="34">
+        <v>44997</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" s="33"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+    </row>
+    <row r="33" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
+        <v>4</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="34">
+        <v>44998</v>
+      </c>
+      <c r="D33" s="34">
+        <v>45011</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="34">
+        <v>44998</v>
+      </c>
+      <c r="G33" s="34">
+        <v>45011</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" s="33"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
+        <v>4.2</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35" s="33"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="32">
+        <v>4.3</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" s="33"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+    </row>
+    <row r="37" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+    </row>
+    <row r="38" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="32">
+        <v>4.5</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38" s="33"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39" s="33"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="32">
+        <v>4.7</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="K40" s="33"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>4.8</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41" s="33"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K42" s="33"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="32">
+        <v>5</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="34">
+        <v>45012</v>
+      </c>
+      <c r="D44" s="34">
+        <v>45025</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="F44" s="34">
+        <v>45012</v>
+      </c>
+      <c r="G44" s="34">
+        <v>45025</v>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+    </row>
+    <row r="45" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45" s="33"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="32">
+        <v>5.2</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" s="33"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="32">
+        <v>5.3</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K47" s="33"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+    </row>
+    <row r="48" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="32">
+        <v>5.4</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K48" s="33"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="32">
+        <v>6</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="34">
+        <v>45012</v>
+      </c>
+      <c r="D50" s="34">
+        <v>45025</v>
+      </c>
+      <c r="E50" s="38"/>
+      <c r="F50" s="34">
+        <v>45012</v>
+      </c>
+      <c r="G50" s="34">
+        <v>45025</v>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="32">
+        <v>6.1</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" s="32">
+        <v>6.2</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" s="32">
+        <v>6.3</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="32">
+        <v>6.4</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="32">
+        <v>6.5</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" s="32">
+        <v>6.6</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="32">
+        <v>6.7</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="32"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="32"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" s="32"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="32"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="32"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" s="32"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" s="32"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" s="32"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="32"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68" s="32"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A69" s="32"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A70" s="32"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A71" s="32"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A72" s="32"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73" s="32"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" s="32"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" s="32"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76" s="32"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" s="32"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A78" s="32"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A79" s="32"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A80" s="32"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81" s="32"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A82" s="32"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A83" s="32"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A84" s="32"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A85" s="32"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A86" s="32"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A87" s="32"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A88" s="32"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
+      <c r="V88" s="9"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A89" s="32"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A90" s="32"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A91" s="32"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A92" s="32"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="9"/>
+      <c r="V92" s="9"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="9"/>
+      <c r="V93" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/diagram/HaMinhTien_Requeirment.xlsx
+++ b/diagram/HaMinhTien_Requeirment.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zanepc\Documents\GitHub\blogVanLang\diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698F7BAC-51F4-4AAD-9DD3-6B9C0AA77A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D13B4C-52DF-4D56-B475-5036BB85DFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
   <si>
     <t>TÍNH NĂNG         (FEATURE)</t>
   </si>
@@ -358,6 +359,9 @@
   </si>
   <si>
     <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Tạo file base.html để kế thừa</t>
   </si>
 </sst>
 </file>
@@ -631,52 +635,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -703,6 +668,45 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1268,19 +1272,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A5D836-F362-4798-BA98-786BDAE98677}">
-  <dimension ref="A7:V93"/>
+  <dimension ref="A7:V94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="11"/>
     <col min="2" max="2" width="35.77734375" style="11" customWidth="1"/>
-    <col min="3" max="4" width="11.77734375" style="40" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" style="27" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="11" customWidth="1"/>
-    <col min="6" max="7" width="11.77734375" style="40" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" style="27" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" style="11" customWidth="1"/>
     <col min="9" max="9" width="41.6640625" style="11" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="11"/>
@@ -1459,29 +1463,29 @@
       <c r="V13" s="9"/>
     </row>
     <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="19" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="17" t="s">
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="29" t="s">
         <v>63</v>
       </c>
       <c r="L14" s="9"/>
@@ -1497,95 +1501,95 @@
       <c r="V14" s="9"/>
     </row>
     <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
     </row>
     <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31" t="s">
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
     </row>
     <row r="17" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="19">
         <v>1</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="21">
         <v>44970</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="21">
         <v>44976</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="34">
+      <c r="E17" s="22"/>
+      <c r="F17" s="21">
         <v>44970</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="21">
         <v>44976</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="36" t="s">
+      <c r="H17" s="22"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="33"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -1599,35 +1603,35 @@
       <c r="V17" s="9"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="21">
         <v>44970</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="21">
         <v>44971</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="34">
+      <c r="E18" s="22"/>
+      <c r="F18" s="21">
         <v>44970</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="21">
         <v>44971</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="24">
         <v>6.25E-2</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="33"/>
+      <c r="K18" s="20"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -1641,33 +1645,33 @@
       <c r="V18" s="9"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="19">
         <v>1.2</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="21">
         <v>44970</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="21">
         <v>44971</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="34">
+      <c r="E19" s="22"/>
+      <c r="F19" s="21">
         <v>44970</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="21">
         <v>44971</v>
       </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="33" t="s">
+      <c r="H19" s="22"/>
+      <c r="I19" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="33"/>
+      <c r="K19" s="20"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -1681,29 +1685,29 @@
       <c r="V19" s="9"/>
     </row>
     <row r="20" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+      <c r="A20" s="19">
         <v>2</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="21">
         <v>44977</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="21">
         <v>44983</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="34">
+      <c r="E20" s="22"/>
+      <c r="F20" s="21">
         <v>44977</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="21">
         <v>44983</v>
       </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="33"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -1717,31 +1721,31 @@
       <c r="V20" s="9"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+      <c r="A21" s="19">
         <v>2.1</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="21">
         <v>44977</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="21">
         <v>44978</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="34">
+      <c r="E21" s="22"/>
+      <c r="F21" s="21">
         <v>44977</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="21">
         <v>44978</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="33" t="s">
+      <c r="H21" s="22"/>
+      <c r="I21" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="33"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -1755,21 +1759,21 @@
       <c r="V21" s="9"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+      <c r="A22" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="33"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="20"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -1783,17 +1787,17 @@
       <c r="V22" s="9"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="33"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -1807,17 +1811,17 @@
       <c r="V23" s="9"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="33"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -1831,17 +1835,17 @@
       <c r="V24" s="9"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="33"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -1855,19 +1859,19 @@
       <c r="V25" s="9"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="36" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="33"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -1881,33 +1885,33 @@
       <c r="V26" s="9"/>
     </row>
     <row r="27" spans="1:22" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
+      <c r="A27" s="19">
         <v>3</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="21">
         <v>44991</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="21">
         <v>44997</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="34">
+      <c r="E27" s="22"/>
+      <c r="F27" s="21">
         <v>44991</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="21">
         <v>44997</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="33" t="s">
+      <c r="H27" s="22"/>
+      <c r="I27" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="36" t="s">
+      <c r="J27" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K27" s="33"/>
+      <c r="K27" s="20"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -1921,31 +1925,31 @@
       <c r="V27" s="9"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+      <c r="A28" s="19">
         <v>3.1</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="21">
         <v>44991</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="21">
         <v>44992</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="34">
+      <c r="E28" s="22"/>
+      <c r="F28" s="21">
         <v>44991</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="21">
         <v>44992</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="36" t="s">
+      <c r="H28" s="22"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K28" s="33"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -1959,31 +1963,31 @@
       <c r="V28" s="9"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+      <c r="A29" s="19">
         <v>3.2</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="21">
         <v>44992</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="21">
         <v>44993</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="34">
+      <c r="E29" s="22"/>
+      <c r="F29" s="21">
         <v>44992</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="21">
         <v>44993</v>
       </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="36" t="s">
+      <c r="H29" s="22"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="33"/>
+      <c r="K29" s="20"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -1997,31 +2001,31 @@
       <c r="V29" s="9"/>
     </row>
     <row r="30" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="19">
         <v>3.3</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="21">
         <v>44993</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="21">
         <v>44995</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="34">
+      <c r="E30" s="22"/>
+      <c r="F30" s="21">
         <v>44993</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="21">
         <v>44995</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="36" t="s">
+      <c r="H30" s="22"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K30" s="33"/>
+      <c r="K30" s="20"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -2035,31 +2039,31 @@
       <c r="V30" s="9"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+      <c r="A31" s="19">
         <v>3.4</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="21">
         <v>44996</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="21">
         <v>44997</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="34">
+      <c r="E31" s="22"/>
+      <c r="F31" s="21">
         <v>44996</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="21">
         <v>44997</v>
       </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="36" t="s">
+      <c r="H31" s="22"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="33"/>
+      <c r="K31" s="20"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -2073,17 +2077,17 @@
       <c r="V31" s="9"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="33"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="20"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -2097,33 +2101,33 @@
       <c r="V32" s="9"/>
     </row>
     <row r="33" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+      <c r="A33" s="19">
         <v>4</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="21">
         <v>44998</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="21">
         <v>45011</v>
       </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="34">
+      <c r="E33" s="22"/>
+      <c r="F33" s="21">
         <v>44998</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="21">
         <v>45011</v>
       </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="33" t="s">
+      <c r="H33" s="22"/>
+      <c r="I33" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="J33" s="36" t="s">
+      <c r="J33" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K33" s="33"/>
+      <c r="K33" s="20"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -2137,21 +2141,21 @@
       <c r="V33" s="9"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="A34" s="19">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="33"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="20"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -2165,23 +2169,23 @@
       <c r="V34" s="9"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="32">
+      <c r="A35" s="19">
         <v>4.2</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="36" t="s">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K35" s="33"/>
+      <c r="K35" s="20"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -2195,23 +2199,23 @@
       <c r="V35" s="9"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
+      <c r="A36" s="19">
         <v>4.3</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="36" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K36" s="33"/>
+      <c r="K36" s="20"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -2225,23 +2229,23 @@
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
+      <c r="A37" s="19">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="36" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K37" s="33" t="s">
+      <c r="K37" s="20" t="s">
         <v>103</v>
       </c>
       <c r="L37" s="9"/>
@@ -2257,25 +2261,25 @@
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
+      <c r="A38" s="19">
         <v>4.5</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="33" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="J38" s="36" t="s">
+      <c r="J38" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K38" s="33"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -2289,23 +2293,23 @@
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="32">
+      <c r="A39" s="19">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="36" t="s">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K39" s="33"/>
+      <c r="K39" s="20"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -2319,23 +2323,23 @@
       <c r="V39" s="9"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="32">
+      <c r="A40" s="19">
         <v>4.7</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="36" t="s">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K40" s="33"/>
+      <c r="K40" s="20"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -2349,23 +2353,23 @@
       <c r="V40" s="9"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="A41" s="19">
         <v>4.8</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="36" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K41" s="33"/>
+      <c r="K41" s="20"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -2379,23 +2383,23 @@
       <c r="V41" s="9"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
+      <c r="A42" s="19">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="36" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K42" s="33"/>
+      <c r="K42" s="20"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -2409,17 +2413,17 @@
       <c r="V42" s="9"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="33"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="20"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -2433,29 +2437,29 @@
       <c r="V43" s="9"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="32">
+      <c r="A44" s="19">
         <v>5</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44" s="21">
         <v>45012</v>
       </c>
-      <c r="D44" s="34">
-        <v>45025</v>
-      </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="34">
+      <c r="D44" s="21">
+        <v>45015</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="21">
         <v>45012</v>
       </c>
-      <c r="G44" s="34">
-        <v>45025</v>
-      </c>
-      <c r="H44" s="39"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="33"/>
+      <c r="G44" s="21">
+        <v>45015</v>
+      </c>
+      <c r="H44" s="26"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="20"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -2469,23 +2473,33 @@
       <c r="V44" s="9"/>
     </row>
     <row r="45" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="32">
+      <c r="A45" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="36" t="s">
+      <c r="C45" s="21">
+        <v>45012</v>
+      </c>
+      <c r="D45" s="21">
+        <v>45012</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="21">
+        <v>45012</v>
+      </c>
+      <c r="G45" s="21">
+        <v>45012</v>
+      </c>
+      <c r="H45" s="26">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K45" s="33"/>
+      <c r="K45" s="20"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -2499,23 +2513,33 @@
       <c r="V45" s="9"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="32">
+      <c r="A46" s="19">
         <v>5.2</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="36" t="s">
+      <c r="C46" s="21">
+        <v>45012</v>
+      </c>
+      <c r="D46" s="21">
+        <v>45012</v>
+      </c>
+      <c r="E46" s="25"/>
+      <c r="F46" s="21">
+        <v>45012</v>
+      </c>
+      <c r="G46" s="21">
+        <v>45012</v>
+      </c>
+      <c r="H46" s="26">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K46" s="33"/>
+      <c r="K46" s="20"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -2529,23 +2553,33 @@
       <c r="V46" s="9"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="32">
+      <c r="A47" s="19">
         <v>5.3</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="36" t="s">
+      <c r="C47" s="21">
+        <v>45012</v>
+      </c>
+      <c r="D47" s="21">
+        <v>45012</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="21">
+        <v>45012</v>
+      </c>
+      <c r="G47" s="21">
+        <v>45012</v>
+      </c>
+      <c r="H47" s="26">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K47" s="33"/>
+      <c r="K47" s="20"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -2559,23 +2593,33 @@
       <c r="V47" s="9"/>
     </row>
     <row r="48" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="32">
+      <c r="A48" s="19">
         <v>5.4</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="36" t="s">
+      <c r="C48" s="21">
+        <v>45013</v>
+      </c>
+      <c r="D48" s="21">
+        <v>45013</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="21">
+        <v>45013</v>
+      </c>
+      <c r="G48" s="21">
+        <v>45013</v>
+      </c>
+      <c r="H48" s="26">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I48" s="20"/>
+      <c r="J48" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K48" s="33"/>
+      <c r="K48" s="20"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -2589,17 +2633,31 @@
       <c r="V48" s="9"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="33"/>
+      <c r="A49" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="21">
+        <v>45013</v>
+      </c>
+      <c r="D49" s="21">
+        <v>45013</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="21">
+        <v>45013</v>
+      </c>
+      <c r="G49" s="21">
+        <v>45013</v>
+      </c>
+      <c r="H49" s="26">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I49" s="20"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="20"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -2613,29 +2671,17 @@
       <c r="V49" s="9"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="32">
-        <v>6</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="34">
-        <v>45012</v>
-      </c>
-      <c r="D50" s="34">
-        <v>45025</v>
-      </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="34">
-        <v>45012</v>
-      </c>
-      <c r="G50" s="34">
-        <v>45025</v>
-      </c>
-      <c r="H50" s="39"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="33"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="20"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -2649,21 +2695,29 @@
       <c r="V50" s="9"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="32">
-        <v>6.1</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="33"/>
+      <c r="A51" s="19">
+        <v>6</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="21">
+        <v>45015</v>
+      </c>
+      <c r="D51" s="21">
+        <v>45025</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="21">
+        <v>45015</v>
+      </c>
+      <c r="G51" s="21">
+        <v>45025</v>
+      </c>
+      <c r="H51" s="26"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="20"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -2677,21 +2731,21 @@
       <c r="V51" s="9"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="32">
-        <v>6.2</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="33"/>
+      <c r="A52" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="20"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -2705,21 +2759,21 @@
       <c r="V52" s="9"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="32">
-        <v>6.3</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="33"/>
+      <c r="A53" s="19">
+        <v>6.2</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="20"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -2733,21 +2787,21 @@
       <c r="V53" s="9"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="32">
-        <v>6.4</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="33"/>
+      <c r="A54" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="20"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
@@ -2761,21 +2815,21 @@
       <c r="V54" s="9"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="32">
-        <v>6.5</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="33"/>
+      <c r="A55" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="20"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
@@ -2789,21 +2843,21 @@
       <c r="V55" s="9"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="32">
-        <v>6.6</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="33"/>
+      <c r="A56" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="20"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
@@ -2817,21 +2871,21 @@
       <c r="V56" s="9"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="32">
-        <v>6.7</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="33"/>
+      <c r="A57" s="19">
+        <v>6.6</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="20"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
@@ -2845,17 +2899,21 @@
       <c r="V57" s="9"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="33"/>
+      <c r="A58" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="20"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
@@ -2869,17 +2927,17 @@
       <c r="V58" s="9"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="33"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="20"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
@@ -2893,17 +2951,17 @@
       <c r="V59" s="9"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="33"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="20"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
@@ -2917,17 +2975,17 @@
       <c r="V60" s="9"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="33"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="20"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
@@ -2941,17 +2999,17 @@
       <c r="V61" s="9"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="33"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="20"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
@@ -2965,17 +3023,17 @@
       <c r="V62" s="9"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="33"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="20"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
@@ -2989,17 +3047,17 @@
       <c r="V63" s="9"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="33"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="20"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
@@ -3013,17 +3071,17 @@
       <c r="V64" s="9"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="33"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="20"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
@@ -3037,17 +3095,17 @@
       <c r="V65" s="9"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="33"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="20"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
@@ -3061,17 +3119,17 @@
       <c r="V66" s="9"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="33"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="20"/>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -3085,17 +3143,17 @@
       <c r="V67" s="9"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="33"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="20"/>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
@@ -3109,17 +3167,17 @@
       <c r="V68" s="9"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="33"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="20"/>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
@@ -3133,17 +3191,17 @@
       <c r="V69" s="9"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="33"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="20"/>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
@@ -3157,17 +3215,17 @@
       <c r="V70" s="9"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="33"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="20"/>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
@@ -3181,17 +3239,17 @@
       <c r="V71" s="9"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="33"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="20"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
@@ -3205,17 +3263,17 @@
       <c r="V72" s="9"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="33"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="20"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
@@ -3229,17 +3287,17 @@
       <c r="V73" s="9"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="33"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="20"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
@@ -3253,17 +3311,17 @@
       <c r="V74" s="9"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="33"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="20"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
@@ -3277,17 +3335,17 @@
       <c r="V75" s="9"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="33"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="33"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="20"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
@@ -3301,17 +3359,17 @@
       <c r="V76" s="9"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="33"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="33"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="20"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
@@ -3325,17 +3383,17 @@
       <c r="V77" s="9"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="33"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="20"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
@@ -3349,17 +3407,17 @@
       <c r="V78" s="9"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="33"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="20"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
@@ -3373,17 +3431,17 @@
       <c r="V79" s="9"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="33"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="20"/>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
@@ -3397,17 +3455,17 @@
       <c r="V80" s="9"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="33"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="20"/>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
@@ -3421,17 +3479,17 @@
       <c r="V81" s="9"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="33"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="20"/>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
@@ -3445,17 +3503,17 @@
       <c r="V82" s="9"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="33"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="20"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
@@ -3469,17 +3527,17 @@
       <c r="V83" s="9"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="33"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="20"/>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
@@ -3493,17 +3551,17 @@
       <c r="V84" s="9"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="33"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="20"/>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
@@ -3517,17 +3575,17 @@
       <c r="V85" s="9"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A86" s="32"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="33"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="20"/>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
@@ -3541,17 +3599,17 @@
       <c r="V86" s="9"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="33"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="20"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
@@ -3565,17 +3623,17 @@
       <c r="V87" s="9"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="32"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="33"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="20"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
@@ -3589,17 +3647,17 @@
       <c r="V88" s="9"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="33"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="20"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -3613,17 +3671,17 @@
       <c r="V89" s="9"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="33"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="20"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
@@ -3637,17 +3695,17 @@
       <c r="V90" s="9"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="33"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="20"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
@@ -3661,17 +3719,17 @@
       <c r="V91" s="9"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="33"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="20"/>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
@@ -3685,17 +3743,17 @@
       <c r="V92" s="9"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="20"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
@@ -3708,13 +3766,37 @@
       <c r="U93" s="9"/>
       <c r="V93" s="9"/>
     </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="U94" s="9"/>
+      <c r="V94" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="K14:K16"/>
@@ -3727,13 +3809,27 @@
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="O15:O16"/>
     <mergeCell ref="P15:P16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4EE638-98B8-41A4-BA7D-654D1EC5A4EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/diagram/HaMinhTien_Requeirment.xlsx
+++ b/diagram/HaMinhTien_Requeirment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zanepc\Documents\GitHub\blogVanLang\diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D13B4C-52DF-4D56-B475-5036BB85DFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8259B9C8-9903-4A36-9FB4-0E6C513C6FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="152">
   <si>
     <t>TÍNH NĂNG         (FEATURE)</t>
   </si>
@@ -256,9 +256,6 @@
     <t>Tìm hiểu về tổng quan Framework Django, mô hình của Django và các bước thực hiện Đồ án với Django.</t>
   </si>
   <si>
-    <t>Thiết kế giao diện</t>
-  </si>
-  <si>
     <t>Liên hệ với Mentor</t>
   </si>
   <si>
@@ -362,6 +359,138 @@
   </si>
   <si>
     <t>Tạo file base.html để kế thừa</t>
+  </si>
+  <si>
+    <t>CSS Selector</t>
+  </si>
+  <si>
+    <t>6.7.2</t>
+  </si>
+  <si>
+    <t>JS Query</t>
+  </si>
+  <si>
+    <t>ChartJS</t>
+  </si>
+  <si>
+    <t>Dashboard Django</t>
+  </si>
+  <si>
+    <t>Bootstrap5</t>
+  </si>
+  <si>
+    <t>Viết các CSS cần thiết cho cả giao diện chung</t>
+  </si>
+  <si>
+    <t>Thiết kế tính năng</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện Đăng nhập</t>
+  </si>
+  <si>
+    <t>6.2.1</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện/Thiết kế tính năng</t>
+  </si>
+  <si>
+    <t>6.2.2</t>
+  </si>
+  <si>
+    <t>Thiết kế tính năng Đăng nhập</t>
+  </si>
+  <si>
+    <t>Sử dụng Mirosoft 365</t>
+  </si>
+  <si>
+    <t>6.2.2.1</t>
+  </si>
+  <si>
+    <t>6.3.1</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện Gửi Yêu Cầu</t>
+  </si>
+  <si>
+    <t>6.3.2</t>
+  </si>
+  <si>
+    <t>Thiết kế tính năng Gửi Yêu Cầu</t>
+  </si>
+  <si>
+    <t>Thêm một hoặc nhiều hình ảnh</t>
+  </si>
+  <si>
+    <t>Quản trị có thể cài đặt tình trạng của Yêu cầu</t>
+  </si>
+  <si>
+    <t>6.3.2.1</t>
+  </si>
+  <si>
+    <t>6.3.2.2</t>
+  </si>
+  <si>
+    <t>6.4.1</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện Thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>6.4.2</t>
+  </si>
+  <si>
+    <t>Thiết kế tính năng Thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Có thể thêm avatar</t>
+  </si>
+  <si>
+    <t>Cập nhật Số điện thoại</t>
+  </si>
+  <si>
+    <t>6.4.2.1</t>
+  </si>
+  <si>
+    <t>6.4.2.2</t>
+  </si>
+  <si>
+    <t>6.5.1</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện Danh sách yêu cầu</t>
+  </si>
+  <si>
+    <t>6.5.1.1</t>
+  </si>
+  <si>
+    <t>Hiển thị Chủ đề, Tình trạng, Người xử lý</t>
+  </si>
+  <si>
+    <t>6.5.2</t>
+  </si>
+  <si>
+    <t>Thiết kế tính năng Danh sách Yêu Cầu</t>
+  </si>
+  <si>
+    <t>6.5.2.1</t>
+  </si>
+  <si>
+    <t>Thiết kế Django Model để hiển thị danh sách yêu cầu</t>
+  </si>
+  <si>
+    <t>6.6.1</t>
+  </si>
+  <si>
+    <t>6.6.2.1</t>
+  </si>
+  <si>
+    <t>6.6.3</t>
+  </si>
+  <si>
+    <t>6.6.4</t>
+  </si>
+  <si>
+    <t>6.6.5</t>
   </si>
 </sst>
 </file>
@@ -669,6 +798,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,6 +809,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -695,18 +836,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1272,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A5D836-F362-4798-BA98-786BDAE98677}">
-  <dimension ref="A7:V94"/>
+  <dimension ref="A7:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1463,29 +1592,29 @@
       <c r="V13" s="9"/>
     </row>
     <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="35" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="29" t="s">
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="30" t="s">
         <v>63</v>
       </c>
       <c r="L14" s="9"/>
@@ -1501,75 +1630,75 @@
       <c r="V14" s="9"/>
     </row>
     <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="39" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="33" t="s">
         <v>65</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="33" t="s">
         <v>65</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
     </row>
     <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
     </row>
     <row r="17" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>1</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="21">
         <v>44970</v>
@@ -1607,7 +1736,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="21">
         <v>44970</v>
@@ -1626,7 +1755,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J18" s="23" t="s">
         <v>70</v>
@@ -1649,7 +1778,7 @@
         <v>1.2</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="21">
         <v>44970</v>
@@ -1666,7 +1795,7 @@
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" s="23" t="s">
         <v>70</v>
@@ -1689,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="21">
         <v>44977</v>
@@ -1725,7 +1854,7 @@
         <v>2.1</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="21">
         <v>44977</v>
@@ -1742,7 +1871,7 @@
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="20"/>
@@ -1763,7 +1892,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -1929,7 +2058,7 @@
         <v>3.1</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="21">
         <v>44991</v>
@@ -1967,7 +2096,7 @@
         <v>3.2</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="21">
         <v>44992</v>
@@ -2005,7 +2134,7 @@
         <v>3.3</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="21">
         <v>44993</v>
@@ -2043,7 +2172,7 @@
         <v>3.4</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="21">
         <v>44996</v>
@@ -2105,7 +2234,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="21">
         <v>44998</v>
@@ -2122,7 +2251,7 @@
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J33" s="23" t="s">
         <v>70</v>
@@ -2145,7 +2274,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -2173,7 +2302,7 @@
         <v>4.2</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -2203,7 +2332,7 @@
         <v>4.3</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
@@ -2233,7 +2362,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
@@ -2246,7 +2375,7 @@
         <v>68</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
@@ -2265,7 +2394,7 @@
         <v>4.5</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -2274,7 +2403,7 @@
       <c r="G38" s="21"/>
       <c r="H38" s="22"/>
       <c r="I38" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J38" s="23" t="s">
         <v>70</v>
@@ -2297,7 +2426,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
@@ -2327,7 +2456,7 @@
         <v>4.7</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
@@ -2357,7 +2486,7 @@
         <v>4.8</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
@@ -2387,7 +2516,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
@@ -2441,7 +2570,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C44" s="21">
         <v>45012</v>
@@ -2477,7 +2606,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="21">
         <v>45012</v>
@@ -2517,7 +2646,7 @@
         <v>5.2</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="21">
         <v>45012</v>
@@ -2557,7 +2686,7 @@
         <v>5.3</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="21">
         <v>45012</v>
@@ -2597,7 +2726,7 @@
         <v>5.4</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="21">
         <v>45013</v>
@@ -2637,7 +2766,7 @@
         <v>5.5</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="21">
         <v>45013</v>
@@ -2699,7 +2828,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C51" s="21">
         <v>45015</v>
@@ -2735,16 +2864,20 @@
         <v>6.1</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
       <c r="E52" s="22"/>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
-      <c r="H52" s="22"/>
+      <c r="H52" s="26">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I52" s="20"/>
-      <c r="J52" s="22"/>
+      <c r="J52" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="K52" s="20"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
@@ -2770,9 +2903,13 @@
       <c r="E53" s="22"/>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
-      <c r="H53" s="22"/>
+      <c r="H53" s="26">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I53" s="20"/>
-      <c r="J53" s="22"/>
+      <c r="J53" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="K53" s="20"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
@@ -2787,18 +2924,18 @@
       <c r="V53" s="9"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
-        <v>6.3</v>
+      <c r="A54" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
       <c r="E54" s="22"/>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
-      <c r="H54" s="22"/>
+      <c r="H54" s="26"/>
       <c r="I54" s="20"/>
       <c r="J54" s="22"/>
       <c r="K54" s="20"/>
@@ -2815,18 +2952,18 @@
       <c r="V54" s="9"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="19">
-        <v>6.4</v>
+      <c r="A55" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
       <c r="E55" s="22"/>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
-      <c r="H55" s="22"/>
+      <c r="H55" s="26"/>
       <c r="I55" s="20"/>
       <c r="J55" s="22"/>
       <c r="K55" s="20"/>
@@ -2843,18 +2980,18 @@
       <c r="V55" s="9"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="19">
-        <v>6.5</v>
+      <c r="A56" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
       <c r="E56" s="22"/>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
-      <c r="H56" s="22"/>
+      <c r="H56" s="26"/>
       <c r="I56" s="20"/>
       <c r="J56" s="22"/>
       <c r="K56" s="20"/>
@@ -2872,19 +3009,23 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
       <c r="E57" s="22"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
-      <c r="H57" s="22"/>
+      <c r="H57" s="26">
+        <v>0.125</v>
+      </c>
       <c r="I57" s="20"/>
-      <c r="J57" s="22"/>
+      <c r="J57" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="K57" s="20"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
@@ -2899,18 +3040,18 @@
       <c r="V57" s="9"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="19">
-        <v>6.7</v>
+      <c r="A58" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
       <c r="E58" s="22"/>
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
-      <c r="H58" s="22"/>
+      <c r="H58" s="26"/>
       <c r="I58" s="20"/>
       <c r="J58" s="22"/>
       <c r="K58" s="20"/>
@@ -2927,14 +3068,18 @@
       <c r="V58" s="9"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="28"/>
+      <c r="A59" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>126</v>
+      </c>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
       <c r="E59" s="22"/>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
-      <c r="H59" s="22"/>
+      <c r="H59" s="26"/>
       <c r="I59" s="20"/>
       <c r="J59" s="22"/>
       <c r="K59" s="20"/>
@@ -2951,14 +3096,18 @@
       <c r="V59" s="9"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="28"/>
+      <c r="A60" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>127</v>
+      </c>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
       <c r="E60" s="22"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
-      <c r="H60" s="22"/>
+      <c r="H60" s="26"/>
       <c r="I60" s="20"/>
       <c r="J60" s="22"/>
       <c r="K60" s="20"/>
@@ -2974,15 +3123,19 @@
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="28"/>
+    <row r="61" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
       <c r="E61" s="22"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
-      <c r="H61" s="22"/>
+      <c r="H61" s="26"/>
       <c r="I61" s="20"/>
       <c r="J61" s="22"/>
       <c r="K61" s="20"/>
@@ -2999,16 +3152,24 @@
       <c r="V61" s="9"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="28"/>
+      <c r="A62" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
       <c r="E62" s="22"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
-      <c r="H62" s="22"/>
+      <c r="H62" s="26">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I62" s="20"/>
-      <c r="J62" s="22"/>
+      <c r="J62" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="K62" s="20"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -3023,14 +3184,18 @@
       <c r="V62" s="9"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="28"/>
+      <c r="A63" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>132</v>
+      </c>
       <c r="C63" s="21"/>
       <c r="D63" s="21"/>
       <c r="E63" s="22"/>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
-      <c r="H63" s="22"/>
+      <c r="H63" s="26"/>
       <c r="I63" s="20"/>
       <c r="J63" s="22"/>
       <c r="K63" s="20"/>
@@ -3047,14 +3212,18 @@
       <c r="V63" s="9"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="28"/>
+      <c r="A64" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>134</v>
+      </c>
       <c r="C64" s="21"/>
       <c r="D64" s="21"/>
       <c r="E64" s="22"/>
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
-      <c r="H64" s="22"/>
+      <c r="H64" s="26"/>
       <c r="I64" s="20"/>
       <c r="J64" s="22"/>
       <c r="K64" s="20"/>
@@ -3071,14 +3240,18 @@
       <c r="V64" s="9"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="28"/>
+      <c r="A65" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>135</v>
+      </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
       <c r="E65" s="22"/>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
-      <c r="H65" s="22"/>
+      <c r="H65" s="26"/>
       <c r="I65" s="20"/>
       <c r="J65" s="22"/>
       <c r="K65" s="20"/>
@@ -3095,14 +3268,18 @@
       <c r="V65" s="9"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="28"/>
+      <c r="A66" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>136</v>
+      </c>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
       <c r="E66" s="22"/>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
-      <c r="H66" s="22"/>
+      <c r="H66" s="26"/>
       <c r="I66" s="20"/>
       <c r="J66" s="22"/>
       <c r="K66" s="20"/>
@@ -3119,16 +3296,24 @@
       <c r="V66" s="9"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="28"/>
+      <c r="A67" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>13</v>
+      </c>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
       <c r="E67" s="22"/>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
-      <c r="H67" s="22"/>
+      <c r="H67" s="26">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I67" s="20"/>
-      <c r="J67" s="22"/>
+      <c r="J67" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="K67" s="20"/>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
@@ -3143,14 +3328,18 @@
       <c r="V67" s="9"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="28"/>
+      <c r="A68" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>140</v>
+      </c>
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
       <c r="E68" s="22"/>
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
-      <c r="H68" s="22"/>
+      <c r="H68" s="26"/>
       <c r="I68" s="20"/>
       <c r="J68" s="22"/>
       <c r="K68" s="20"/>
@@ -3167,14 +3356,18 @@
       <c r="V68" s="9"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="28"/>
+      <c r="A69" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>142</v>
+      </c>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
       <c r="E69" s="22"/>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
-      <c r="H69" s="22"/>
+      <c r="H69" s="26"/>
       <c r="I69" s="20"/>
       <c r="J69" s="22"/>
       <c r="K69" s="20"/>
@@ -3191,14 +3384,18 @@
       <c r="V69" s="9"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="28"/>
+      <c r="A70" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>144</v>
+      </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
       <c r="E70" s="22"/>
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
-      <c r="H70" s="22"/>
+      <c r="H70" s="26"/>
       <c r="I70" s="20"/>
       <c r="J70" s="22"/>
       <c r="K70" s="20"/>
@@ -3214,15 +3411,19 @@
       <c r="U70" s="9"/>
       <c r="V70" s="9"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="28"/>
+    <row r="71" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A71" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>146</v>
+      </c>
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
       <c r="E71" s="22"/>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
-      <c r="H71" s="22"/>
+      <c r="H71" s="26"/>
       <c r="I71" s="20"/>
       <c r="J71" s="22"/>
       <c r="K71" s="20"/>
@@ -3239,16 +3440,22 @@
       <c r="V71" s="9"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="28"/>
+      <c r="A72" s="19">
+        <v>6.6</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="C72" s="21"/>
       <c r="D72" s="21"/>
       <c r="E72" s="22"/>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
-      <c r="H72" s="22"/>
+      <c r="H72" s="26"/>
       <c r="I72" s="20"/>
-      <c r="J72" s="22"/>
+      <c r="J72" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="K72" s="20"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
@@ -3263,14 +3470,20 @@
       <c r="V72" s="9"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="28"/>
+      <c r="A73" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>113</v>
+      </c>
       <c r="C73" s="21"/>
       <c r="D73" s="21"/>
       <c r="E73" s="22"/>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
-      <c r="H73" s="22"/>
+      <c r="H73" s="26">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="I73" s="20"/>
       <c r="J73" s="22"/>
       <c r="K73" s="20"/>
@@ -3287,14 +3500,20 @@
       <c r="V73" s="9"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="28"/>
+      <c r="A74" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>108</v>
+      </c>
       <c r="C74" s="21"/>
       <c r="D74" s="21"/>
       <c r="E74" s="22"/>
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
-      <c r="H74" s="22"/>
+      <c r="H74" s="26">
+        <v>0.25</v>
+      </c>
       <c r="I74" s="20"/>
       <c r="J74" s="22"/>
       <c r="K74" s="20"/>
@@ -3310,15 +3529,19 @@
       <c r="U74" s="9"/>
       <c r="V74" s="9"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="28"/>
+    <row r="75" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>114</v>
+      </c>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
       <c r="E75" s="22"/>
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
-      <c r="H75" s="22"/>
+      <c r="H75" s="26"/>
       <c r="I75" s="20"/>
       <c r="J75" s="22"/>
       <c r="K75" s="20"/>
@@ -3335,8 +3558,12 @@
       <c r="V75" s="9"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="28"/>
+      <c r="A76" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
       <c r="E76" s="22"/>
@@ -3359,8 +3586,12 @@
       <c r="V76" s="9"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="28"/>
+      <c r="A77" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>111</v>
+      </c>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
       <c r="E77" s="22"/>
@@ -3383,8 +3614,12 @@
       <c r="V77" s="9"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="28"/>
+      <c r="A78" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>112</v>
+      </c>
       <c r="C78" s="21"/>
       <c r="D78" s="21"/>
       <c r="E78" s="22"/>
@@ -3455,8 +3690,12 @@
       <c r="V80" s="9"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="28"/>
+      <c r="A81" s="19">
+        <v>7</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>115</v>
+      </c>
       <c r="C81" s="21"/>
       <c r="D81" s="21"/>
       <c r="E81" s="22"/>
@@ -3479,8 +3718,12 @@
       <c r="V81" s="9"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="28"/>
+      <c r="A82" s="19">
+        <v>7.1</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
       <c r="E82" s="22"/>
@@ -3767,17 +4010,17 @@
       <c r="V93" s="9"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="20"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
@@ -3790,13 +4033,397 @@
       <c r="U94" s="9"/>
       <c r="V94" s="9"/>
     </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A95" s="19"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="9"/>
+      <c r="V95" s="9"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A96" s="19"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="9"/>
+      <c r="V96" s="9"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A97" s="19"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="9"/>
+      <c r="V97" s="9"/>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A98" s="19"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A99" s="19"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A100" s="19"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A101" s="19"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A102" s="19"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9"/>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A103" s="19"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A104" s="19"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="9"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A105" s="19"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A106" s="19"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A107" s="19"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="9"/>
+      <c r="V107" s="9"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A108" s="19"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="9"/>
+      <c r="V108" s="9"/>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A109" s="19"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
+      <c r="V109" s="9"/>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
+      <c r="U110" s="9"/>
+      <c r="V110" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:I16"/>
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="K14:K16"/>
@@ -3809,11 +4436,11 @@
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="O15:O16"/>
     <mergeCell ref="P15:P16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/diagram/HaMinhTien_Requeirment.xlsx
+++ b/diagram/HaMinhTien_Requeirment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zanepc\Documents\GitHub\blogVanLang\diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D83A3B-7EF9-4C15-9362-7E51BEB51166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144988D0-8E36-4A62-B763-B947926A7115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mô tả Yêu cầu chức năng" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="181">
   <si>
     <t>ID</t>
   </si>
@@ -421,9 +421,6 @@
     <t>7.2.3</t>
   </si>
   <si>
-    <t>Bắt b</t>
-  </si>
-  <si>
     <t>DANH SÁCH CÁC YÊU CẦU CHỨC NĂNG (FUNCTIONAL REQUIREMENTS)</t>
   </si>
   <si>
@@ -485,6 +482,109 @@
   </si>
   <si>
     <t>6.7.5</t>
+  </si>
+  <si>
+    <t>Hoàn thành CSS Trang chủ, tinh chỉnh thích hợp trên điện thoại</t>
+  </si>
+  <si>
+    <t>Thêm các tính năng để hoạt động tốt hơn trên điện thoại</t>
+  </si>
+  <si>
+    <t>8.1.1</t>
+  </si>
+  <si>
+    <t>8.1.2</t>
+  </si>
+  <si>
+    <t>Mirosoft 365</t>
+  </si>
+  <si>
+    <t>Hiện chưa thể đăng nhập được tài khoản trường, do chờ duyệt</t>
+  </si>
+  <si>
+    <t>Có thể đăng nhập bằng tài khoản cá nhân của Mirosoft</t>
+  </si>
+  <si>
+    <t>8.2.1</t>
+  </si>
+  <si>
+    <t>8.2.2</t>
+  </si>
+  <si>
+    <t>8.2.3</t>
+  </si>
+  <si>
+    <t>Tạo các group dựa theo swimland đã lên kế hoạch trước đó 
+manageUser: Quản trị viên của phòng CNTT
+employee: Nhân viên phòng CNTT
+User: mặc định là thầy cô và các sinh viên</t>
+  </si>
+  <si>
+    <t>Cấu tạo data model</t>
+  </si>
+  <si>
+    <t>8.1.3</t>
+  </si>
+  <si>
+    <t>Hoàn thành Knowledge</t>
+  </si>
+  <si>
+    <t>Các tính năng đã tinh chỉnh</t>
+  </si>
+  <si>
+    <t>8.3.1</t>
+  </si>
+  <si>
+    <t>Thêm bộ lọc các yêu cầu hiển thị
+"hoàn thành","chờ tiếp nhận","đã xử lý","đang xử lý"</t>
+  </si>
+  <si>
+    <t>8.3.2</t>
+  </si>
+  <si>
+    <t>Thêm đánh giá ngôi sao</t>
+  </si>
+  <si>
+    <t>8.3.3</t>
+  </si>
+  <si>
+    <t>Tự động hóa</t>
+  </si>
+  <si>
+    <t>Giao phó nhân viên xử lý</t>
+  </si>
+  <si>
+    <t>Bắt điều kiện nhập số điện thoại</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa lại Image thành Attachment để có thể thêm file hoặc image</t>
+  </si>
+  <si>
+    <t>8.3.4</t>
+  </si>
+  <si>
+    <t>Thêm các tính năng cụ thể cho Employee</t>
+  </si>
+  <si>
+    <t>8.3.5</t>
+  </si>
+  <si>
+    <t>Thêm các tính năng có ở Admin xuống cho Quản trị viên</t>
+  </si>
+  <si>
+    <t>8.3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xây dựng Chart để thống kê biểu đồ gồm
+1.Nhân viên xử lý yêu cầu
+2.Số lượng yêu cầu
+</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Hiển thị các bài viết đã được viết bởi Quản trị viên</t>
   </si>
 </sst>
 </file>
@@ -553,7 +653,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,6 +705,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,9 +895,6 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="46" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -820,21 +923,96 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -844,86 +1022,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -941,36 +1080,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1259,711 +1368,715 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9133EE92-6C79-401D-A2F2-17A6EF14E4C9}">
   <dimension ref="A2:F74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="59" style="34" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="34" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="34"/>
+    <col min="1" max="1" width="20.33203125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="59" style="33" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="33" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="29" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+    </row>
+    <row r="4" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="4" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="D4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="34" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="34" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="34" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="34" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="34" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="34" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="34" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="34" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="34" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="34" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="34" t="s">
+      <c r="D17" s="31"/>
+      <c r="E17" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33"/>
+      <c r="A27" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="32"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="32"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="32"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="32"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="32"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="32"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="32"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="32"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="32"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="32"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="32"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="32"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="32"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="32"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="32"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="33"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="32"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="32"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="33"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="32"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="32"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="32"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="33"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="32"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="32"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="32"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="32"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="33"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="32"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="32"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="32"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="33"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="32"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="32"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="33"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="32"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="33"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="33"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="32"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="33"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="32"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="33"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="32"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="32"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="33"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="32"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="32"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="33"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="32"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="32"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="33"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="32"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="32"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="33"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="32"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="32"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="33"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="32"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="32"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="33"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="32"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="32"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="33"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="32"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="32"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="33"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="32"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="32"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="33"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="32"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="32"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="33"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E1 F4 E3:E1048576">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Thấp">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Thấp">
       <formula>NOT(ISERROR(SEARCH("Thấp",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="TB">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="TB">
       <formula>NOT(ISERROR(SEARCH("TB",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Cao">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Cao">
       <formula>NOT(ISERROR(SEARCH("Cao",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F32">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Doing">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Doing">
       <formula>NOT(ISERROR(SEARCH("Doing",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1978,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A5D836-F362-4798-BA98-786BDAE98677}">
-  <dimension ref="A7:V105"/>
+  <dimension ref="A7:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView topLeftCell="A91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2169,29 +2282,29 @@
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47" t="s">
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="38" t="s">
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="55" t="s">
         <v>52</v>
       </c>
       <c r="L14" s="2"/>
@@ -2207,87 +2320,87 @@
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="41" t="s">
+      <c r="A15" s="56"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="65" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="65" t="s">
         <v>54</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
     </row>
     <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
       <c r="H16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
     </row>
     <row r="17" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="50">
+      <c r="A17" s="35">
         <v>1</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="37">
         <v>44970</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="37">
         <v>44976</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="52">
+      <c r="E17" s="38"/>
+      <c r="F17" s="37">
         <v>44970</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="37">
         <v>44976</v>
       </c>
       <c r="H17" s="15"/>
@@ -2309,23 +2422,23 @@
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="50">
+      <c r="A18" s="35">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="37">
         <v>44970</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="37">
         <v>44971</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="52">
+      <c r="E18" s="38"/>
+      <c r="F18" s="37">
         <v>44970</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="37">
         <v>44971</v>
       </c>
       <c r="H18" s="17">
@@ -2351,23 +2464,23 @@
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="50">
+      <c r="A19" s="35">
         <v>1.2</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="37">
         <v>44970</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="37">
         <v>44971</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="52">
+      <c r="E19" s="38"/>
+      <c r="F19" s="37">
         <v>44970</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="37">
         <v>44971</v>
       </c>
       <c r="H19" s="15"/>
@@ -2591,23 +2704,23 @@
       <c r="V26" s="2"/>
     </row>
     <row r="27" spans="1:22" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="54">
+      <c r="A27" s="39">
         <v>3</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="41">
         <v>44991</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D27" s="41">
         <v>44997</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="56">
+      <c r="E27" s="42"/>
+      <c r="F27" s="41">
         <v>44991</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G27" s="41">
         <v>44997</v>
       </c>
       <c r="H27" s="15"/>
@@ -2631,23 +2744,23 @@
       <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="54">
+      <c r="A28" s="39">
         <v>3.1</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="41">
         <v>44991</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D28" s="41">
         <v>44992</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="56">
+      <c r="E28" s="42"/>
+      <c r="F28" s="41">
         <v>44991</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="41">
         <v>44992</v>
       </c>
       <c r="H28" s="15"/>
@@ -2669,23 +2782,23 @@
       <c r="V28" s="2"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="54">
+      <c r="A29" s="39">
         <v>3.2</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="41">
         <v>44992</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="41">
         <v>44993</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="56">
+      <c r="E29" s="42"/>
+      <c r="F29" s="41">
         <v>44992</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G29" s="41">
         <v>44993</v>
       </c>
       <c r="H29" s="15"/>
@@ -2707,23 +2820,23 @@
       <c r="V29" s="2"/>
     </row>
     <row r="30" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="54">
+      <c r="A30" s="39">
         <v>3.3</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="41">
         <v>44993</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="41">
         <v>44995</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="56">
+      <c r="E30" s="42"/>
+      <c r="F30" s="41">
         <v>44993</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="41">
         <v>44995</v>
       </c>
       <c r="H30" s="15"/>
@@ -2745,23 +2858,23 @@
       <c r="V30" s="2"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="54">
+      <c r="A31" s="39">
         <v>3.4</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="41">
         <v>44996</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="41">
         <v>44997</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="56">
+      <c r="E31" s="42"/>
+      <c r="F31" s="41">
         <v>44996</v>
       </c>
-      <c r="G31" s="56">
+      <c r="G31" s="41">
         <v>44997</v>
       </c>
       <c r="H31" s="15"/>
@@ -2807,23 +2920,23 @@
       <c r="V32" s="2"/>
     </row>
     <row r="33" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="58">
+      <c r="A33" s="43">
         <v>4</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="60">
+      <c r="C33" s="45">
         <v>44998</v>
       </c>
-      <c r="D33" s="60">
+      <c r="D33" s="45">
         <v>45011</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="60">
+      <c r="E33" s="46"/>
+      <c r="F33" s="45">
         <v>44998</v>
       </c>
-      <c r="G33" s="60">
+      <c r="G33" s="45">
         <v>45011</v>
       </c>
       <c r="H33" s="15"/>
@@ -2847,17 +2960,17 @@
       <c r="V33" s="2"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="58">
+      <c r="A34" s="43">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
       <c r="H34" s="15"/>
       <c r="I34" s="13"/>
       <c r="J34" s="16"/>
@@ -2875,17 +2988,17 @@
       <c r="V34" s="2"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="58">
+      <c r="A35" s="43">
         <v>4.2</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
       <c r="H35" s="15"/>
       <c r="I35" s="13"/>
       <c r="J35" s="16" t="s">
@@ -2905,17 +3018,17 @@
       <c r="V35" s="2"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="58">
+      <c r="A36" s="43">
         <v>4.3</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
       <c r="H36" s="15"/>
       <c r="I36" s="13"/>
       <c r="J36" s="16" t="s">
@@ -2935,17 +3048,17 @@
       <c r="V36" s="2"/>
     </row>
     <row r="37" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="58">
+      <c r="A37" s="43">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
       <c r="H37" s="15"/>
       <c r="I37" s="13"/>
       <c r="J37" s="16" t="s">
@@ -2967,17 +3080,17 @@
       <c r="V37" s="2"/>
     </row>
     <row r="38" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="58">
+      <c r="A38" s="43">
         <v>4.5</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
       <c r="H38" s="15"/>
       <c r="I38" s="13" t="s">
         <v>89</v>
@@ -2999,17 +3112,17 @@
       <c r="V38" s="2"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="58">
+      <c r="A39" s="43">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
       <c r="H39" s="15"/>
       <c r="I39" s="13"/>
       <c r="J39" s="16" t="s">
@@ -3029,17 +3142,17 @@
       <c r="V39" s="2"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="58">
+      <c r="A40" s="43">
         <v>4.7</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="15"/>
       <c r="I40" s="13"/>
       <c r="J40" s="16" t="s">
@@ -3059,17 +3172,17 @@
       <c r="V40" s="2"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="58">
+      <c r="A41" s="43">
         <v>4.8</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
       <c r="H41" s="15"/>
       <c r="I41" s="13"/>
       <c r="J41" s="16" t="s">
@@ -3089,17 +3202,17 @@
       <c r="V41" s="2"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="58">
+      <c r="A42" s="43">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="15"/>
       <c r="I42" s="13"/>
       <c r="J42" s="16" t="s">
@@ -3155,14 +3268,14 @@
       <c r="D44" s="24">
         <v>45015</v>
       </c>
-      <c r="E44" s="26"/>
+      <c r="E44" s="25"/>
       <c r="F44" s="24">
         <v>45012</v>
       </c>
       <c r="G44" s="24">
         <v>45015</v>
       </c>
-      <c r="H44" s="62"/>
+      <c r="H44" s="47"/>
       <c r="I44" s="13"/>
       <c r="J44" s="16"/>
       <c r="K44" s="13"/>
@@ -3191,14 +3304,14 @@
       <c r="D45" s="24">
         <v>45012</v>
       </c>
-      <c r="E45" s="26"/>
+      <c r="E45" s="25"/>
       <c r="F45" s="24">
         <v>45012</v>
       </c>
       <c r="G45" s="24">
         <v>45012</v>
       </c>
-      <c r="H45" s="62">
+      <c r="H45" s="47">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I45" s="13"/>
@@ -3231,14 +3344,14 @@
       <c r="D46" s="24">
         <v>45012</v>
       </c>
-      <c r="E46" s="26"/>
+      <c r="E46" s="25"/>
       <c r="F46" s="24">
         <v>45012</v>
       </c>
       <c r="G46" s="24">
         <v>45012</v>
       </c>
-      <c r="H46" s="62">
+      <c r="H46" s="47">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="I46" s="13"/>
@@ -3271,14 +3384,14 @@
       <c r="D47" s="24">
         <v>45012</v>
       </c>
-      <c r="E47" s="26"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="24">
         <v>45012</v>
       </c>
       <c r="G47" s="24">
         <v>45012</v>
       </c>
-      <c r="H47" s="62">
+      <c r="H47" s="47">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="I47" s="13"/>
@@ -3311,14 +3424,14 @@
       <c r="D48" s="24">
         <v>45013</v>
       </c>
-      <c r="E48" s="26"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="24">
         <v>45013</v>
       </c>
       <c r="G48" s="24">
         <v>45013</v>
       </c>
-      <c r="H48" s="62">
+      <c r="H48" s="47">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="I48" s="13"/>
@@ -3351,14 +3464,14 @@
       <c r="D49" s="24">
         <v>45013</v>
       </c>
-      <c r="E49" s="26"/>
+      <c r="E49" s="25"/>
       <c r="F49" s="24">
         <v>45013</v>
       </c>
       <c r="G49" s="24">
         <v>45013</v>
       </c>
-      <c r="H49" s="62">
+      <c r="H49" s="47">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="I49" s="13"/>
@@ -3401,26 +3514,26 @@
       <c r="V50" s="2"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="63">
+      <c r="A51" s="48">
         <v>6</v>
       </c>
-      <c r="B51" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="65">
+      <c r="B51" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="50">
         <v>45015</v>
       </c>
-      <c r="D51" s="65">
+      <c r="D51" s="50">
         <v>45025</v>
       </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="65">
+      <c r="E51" s="51"/>
+      <c r="F51" s="50">
         <v>45015</v>
       </c>
-      <c r="G51" s="65">
+      <c r="G51" s="50">
         <v>45025</v>
       </c>
-      <c r="H51" s="67"/>
+      <c r="H51" s="52"/>
       <c r="I51" s="13"/>
       <c r="J51" s="15"/>
       <c r="K51" s="13"/>
@@ -3437,26 +3550,26 @@
       <c r="V51" s="2"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="63">
+      <c r="A52" s="48">
         <v>6.1</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="65">
+      <c r="C52" s="50">
         <v>45015</v>
       </c>
-      <c r="D52" s="65">
+      <c r="D52" s="50">
         <v>45015</v>
       </c>
-      <c r="E52" s="68"/>
-      <c r="F52" s="65">
+      <c r="E52" s="53"/>
+      <c r="F52" s="50">
         <v>45015</v>
       </c>
-      <c r="G52" s="65">
+      <c r="G52" s="50">
         <v>45015</v>
       </c>
-      <c r="H52" s="67">
+      <c r="H52" s="52">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I52" s="13"/>
@@ -3477,26 +3590,26 @@
       <c r="V52" s="2"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="63">
+      <c r="A53" s="48">
         <v>6.2</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="65">
+      <c r="C53" s="50">
         <v>45015</v>
       </c>
-      <c r="D53" s="65">
+      <c r="D53" s="50">
         <v>45015</v>
       </c>
-      <c r="E53" s="68"/>
-      <c r="F53" s="65">
+      <c r="E53" s="53"/>
+      <c r="F53" s="50">
         <v>45015</v>
       </c>
-      <c r="G53" s="65">
+      <c r="G53" s="50">
         <v>45015</v>
       </c>
-      <c r="H53" s="67">
+      <c r="H53" s="52">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="I53" s="13"/>
@@ -3517,26 +3630,26 @@
       <c r="V53" s="2"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="63" t="s">
+      <c r="A54" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="65">
+      <c r="C54" s="50">
         <v>45015</v>
       </c>
-      <c r="D54" s="65">
+      <c r="D54" s="50">
         <v>45015</v>
       </c>
-      <c r="E54" s="68"/>
-      <c r="F54" s="65">
+      <c r="E54" s="53"/>
+      <c r="F54" s="50">
         <v>45015</v>
       </c>
-      <c r="G54" s="65">
+      <c r="G54" s="50">
         <v>45015</v>
       </c>
-      <c r="H54" s="67"/>
+      <c r="H54" s="52"/>
       <c r="I54" s="13"/>
       <c r="J54" s="15"/>
       <c r="K54" s="13"/>
@@ -3553,26 +3666,26 @@
       <c r="V54" s="2"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="63">
+      <c r="A55" s="48">
         <v>6.3</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="65">
+      <c r="C55" s="50">
         <v>45016</v>
       </c>
-      <c r="D55" s="65">
+      <c r="D55" s="50">
         <v>45016</v>
       </c>
-      <c r="E55" s="68"/>
-      <c r="F55" s="65">
+      <c r="E55" s="53"/>
+      <c r="F55" s="50">
         <v>45016</v>
       </c>
-      <c r="G55" s="65">
+      <c r="G55" s="50">
         <v>45016</v>
       </c>
-      <c r="H55" s="67">
+      <c r="H55" s="52">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I55" s="13"/>
@@ -3593,18 +3706,18 @@
       <c r="V55" s="2"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="63" t="s">
+      <c r="A56" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="67"/>
+      <c r="B56" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="52"/>
       <c r="I56" s="13"/>
       <c r="J56" s="15"/>
       <c r="K56" s="13"/>
@@ -3621,26 +3734,26 @@
       <c r="V56" s="2"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="63">
+      <c r="A57" s="48">
         <v>6.4</v>
       </c>
-      <c r="B57" s="64" t="s">
+      <c r="B57" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="65">
+      <c r="C57" s="50">
         <v>45017</v>
       </c>
-      <c r="D57" s="65">
+      <c r="D57" s="50">
         <v>45018</v>
       </c>
-      <c r="E57" s="68"/>
-      <c r="F57" s="65">
+      <c r="E57" s="53"/>
+      <c r="F57" s="50">
         <v>45017</v>
       </c>
-      <c r="G57" s="65">
+      <c r="G57" s="50">
         <v>45018</v>
       </c>
-      <c r="H57" s="67">
+      <c r="H57" s="52">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I57" s="13"/>
@@ -3661,18 +3774,18 @@
       <c r="V57" s="2"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="63" t="s">
+      <c r="A58" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="67">
+      <c r="B58" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="52">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="I58" s="13"/>
@@ -3691,18 +3804,18 @@
       <c r="V58" s="2"/>
     </row>
     <row r="59" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="63" t="s">
+      <c r="A59" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="67">
+      <c r="B59" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="52">
         <v>6.25E-2</v>
       </c>
       <c r="I59" s="13"/>
@@ -3721,26 +3834,26 @@
       <c r="V59" s="2"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="63">
+      <c r="A60" s="48">
         <v>6.5</v>
       </c>
-      <c r="B60" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" s="65">
+      <c r="B60" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="50">
         <v>45019</v>
       </c>
-      <c r="D60" s="65">
+      <c r="D60" s="50">
         <v>45019</v>
       </c>
-      <c r="E60" s="68"/>
-      <c r="F60" s="65">
+      <c r="E60" s="53"/>
+      <c r="F60" s="50">
         <v>45019</v>
       </c>
-      <c r="G60" s="65">
+      <c r="G60" s="50">
         <v>45019</v>
       </c>
-      <c r="H60" s="67">
+      <c r="H60" s="52">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I60" s="13"/>
@@ -3761,18 +3874,18 @@
       <c r="V60" s="2"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="63" t="s">
+      <c r="A61" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="B61" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="67"/>
+      <c r="B61" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="52"/>
       <c r="I61" s="13"/>
       <c r="J61" s="15"/>
       <c r="K61" s="13"/>
@@ -3789,26 +3902,26 @@
       <c r="V61" s="2"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="63">
+      <c r="A62" s="48">
         <v>6.6</v>
       </c>
-      <c r="B62" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="65">
+      <c r="B62" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="50">
         <v>45021</v>
       </c>
-      <c r="D62" s="65">
+      <c r="D62" s="50">
         <v>45023</v>
       </c>
-      <c r="E62" s="68"/>
-      <c r="F62" s="65">
+      <c r="E62" s="53"/>
+      <c r="F62" s="50">
         <v>45021</v>
       </c>
-      <c r="G62" s="65">
+      <c r="G62" s="50">
         <v>45023</v>
       </c>
-      <c r="H62" s="67">
+      <c r="H62" s="52">
         <v>0.33333333333333331</v>
       </c>
       <c r="I62" s="13"/>
@@ -3827,18 +3940,18 @@
       <c r="V62" s="2"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="63" t="s">
+      <c r="A63" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="67"/>
+      <c r="B63" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="52"/>
       <c r="I63" s="13"/>
       <c r="J63" s="15"/>
       <c r="K63" s="13"/>
@@ -3855,18 +3968,18 @@
       <c r="V63" s="2"/>
     </row>
     <row r="64" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="67"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="52"/>
       <c r="I64" s="13"/>
       <c r="J64" s="15"/>
       <c r="K64" s="13"/>
@@ -3883,18 +3996,18 @@
       <c r="V64" s="2"/>
     </row>
     <row r="65" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="63" t="s">
+      <c r="A65" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="67"/>
+      <c r="B65" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="52"/>
       <c r="I65" s="13"/>
       <c r="J65" s="15"/>
       <c r="K65" s="13"/>
@@ -3911,26 +4024,26 @@
       <c r="V65" s="2"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="63">
+      <c r="A66" s="48">
         <v>6.7</v>
       </c>
-      <c r="B66" s="64" t="s">
+      <c r="B66" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="65">
+      <c r="C66" s="50">
         <v>45023</v>
       </c>
-      <c r="D66" s="65">
+      <c r="D66" s="50">
         <v>45025</v>
       </c>
-      <c r="E66" s="68"/>
-      <c r="F66" s="65">
+      <c r="E66" s="53"/>
+      <c r="F66" s="50">
         <v>45023</v>
       </c>
-      <c r="G66" s="65">
+      <c r="G66" s="50">
         <v>45025</v>
       </c>
-      <c r="H66" s="67">
+      <c r="H66" s="52">
         <v>0.5</v>
       </c>
       <c r="I66" s="13"/>
@@ -3951,18 +4064,18 @@
       <c r="V66" s="2"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="67"/>
+      <c r="A67" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="52"/>
       <c r="I67" s="13"/>
       <c r="J67" s="15" t="s">
         <v>59</v>
@@ -3981,18 +4094,18 @@
       <c r="V67" s="2"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="67"/>
+      <c r="B68" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="52"/>
       <c r="I68" s="13"/>
       <c r="J68" s="15" t="s">
         <v>59</v>
@@ -4011,18 +4124,18 @@
       <c r="V68" s="2"/>
     </row>
     <row r="69" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="B69" s="64" t="s">
+      <c r="A69" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="67"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="52"/>
       <c r="I69" s="13"/>
       <c r="J69" s="15" t="s">
         <v>59</v>
@@ -4041,18 +4154,18 @@
       <c r="V69" s="2"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="B70" s="64" t="s">
+      <c r="A70" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="68"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="53"/>
       <c r="I70" s="13"/>
       <c r="J70" s="15" t="s">
         <v>57</v>
@@ -4071,18 +4184,18 @@
       <c r="V70" s="2"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71" s="64" t="s">
+      <c r="A71" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="68"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="53"/>
       <c r="I71" s="13"/>
       <c r="J71" s="15" t="s">
         <v>57</v>
@@ -4101,18 +4214,18 @@
       <c r="V71" s="2"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="B72" s="64" t="s">
+      <c r="A72" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="68"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="53"/>
       <c r="I72" s="13"/>
       <c r="J72" s="15" t="s">
         <v>59</v>
@@ -4179,26 +4292,26 @@
       <c r="V74" s="2"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="22">
+      <c r="A75" s="43">
         <v>7</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="45">
         <v>45027</v>
       </c>
-      <c r="D75" s="24">
-        <v>45041</v>
-      </c>
-      <c r="E75" s="25"/>
-      <c r="F75" s="24">
+      <c r="D75" s="45">
+        <v>45044</v>
+      </c>
+      <c r="E75" s="46"/>
+      <c r="F75" s="45">
         <v>45027</v>
       </c>
-      <c r="G75" s="24">
-        <v>45041</v>
-      </c>
-      <c r="H75" s="26"/>
+      <c r="G75" s="45">
+        <v>45044</v>
+      </c>
+      <c r="H75" s="68"/>
       <c r="I75" s="13"/>
       <c r="J75" s="15"/>
       <c r="K75" s="13"/>
@@ -4215,18 +4328,18 @@
       <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="12">
+      <c r="A76" s="43">
         <v>7.1</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="15"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="46"/>
       <c r="I76" s="13"/>
       <c r="J76" s="15"/>
       <c r="K76" s="13"/>
@@ -4242,19 +4355,27 @@
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+    <row r="77" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="19">
+      <c r="C77" s="45">
+        <v>45027</v>
+      </c>
+      <c r="D77" s="45">
+        <v>45029</v>
+      </c>
+      <c r="E77" s="46"/>
+      <c r="F77" s="45">
+        <v>45027</v>
+      </c>
+      <c r="G77" s="45">
+        <v>45029</v>
+      </c>
+      <c r="H77" s="69">
         <v>0.16666666666666666</v>
       </c>
       <c r="I77" s="13"/>
@@ -4275,18 +4396,26 @@
       <c r="V77" s="2"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="19">
+      <c r="C78" s="45">
+        <v>45029</v>
+      </c>
+      <c r="D78" s="45">
+        <v>45029</v>
+      </c>
+      <c r="E78" s="46"/>
+      <c r="F78" s="45">
+        <v>45029</v>
+      </c>
+      <c r="G78" s="45">
+        <v>45029</v>
+      </c>
+      <c r="H78" s="69">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I78" s="13"/>
@@ -4307,20 +4436,26 @@
       <c r="V78" s="2"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="12">
+      <c r="A79" s="43">
         <v>7.2</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="19">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="C79" s="45">
+        <v>45031</v>
+      </c>
+      <c r="D79" s="45">
+        <v>45033</v>
+      </c>
+      <c r="E79" s="46"/>
+      <c r="F79" s="45">
+        <v>45031</v>
+      </c>
+      <c r="G79" s="45">
+        <v>45033</v>
+      </c>
+      <c r="H79" s="69"/>
       <c r="I79" s="13"/>
       <c r="J79" s="15" t="s">
         <v>59</v>
@@ -4339,18 +4474,28 @@
       <c r="V79" s="2"/>
     </row>
     <row r="80" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="15"/>
+      <c r="C80" s="45">
+        <v>45031</v>
+      </c>
+      <c r="D80" s="45">
+        <v>45031</v>
+      </c>
+      <c r="E80" s="46"/>
+      <c r="F80" s="45">
+        <v>45031</v>
+      </c>
+      <c r="G80" s="45">
+        <v>45031</v>
+      </c>
+      <c r="H80" s="69">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I80" s="13"/>
       <c r="J80" s="15" t="s">
         <v>59</v>
@@ -4369,18 +4514,28 @@
       <c r="V80" s="2"/>
     </row>
     <row r="81" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="15"/>
+      <c r="C81" s="45">
+        <v>45032</v>
+      </c>
+      <c r="D81" s="45">
+        <v>45032</v>
+      </c>
+      <c r="E81" s="46"/>
+      <c r="F81" s="45">
+        <v>45032</v>
+      </c>
+      <c r="G81" s="45">
+        <v>45032</v>
+      </c>
+      <c r="H81" s="69">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I81" s="13"/>
       <c r="J81" s="15" t="s">
         <v>59</v>
@@ -4399,18 +4554,28 @@
       <c r="V81" s="2"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B82" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="15"/>
+      <c r="B82" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" s="45">
+        <v>45033</v>
+      </c>
+      <c r="D82" s="45">
+        <v>45033</v>
+      </c>
+      <c r="E82" s="46"/>
+      <c r="F82" s="45">
+        <v>45033</v>
+      </c>
+      <c r="G82" s="45">
+        <v>45033</v>
+      </c>
+      <c r="H82" s="69">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I82" s="13"/>
       <c r="J82" s="15"/>
       <c r="K82" s="13"/>
@@ -4427,18 +4592,26 @@
       <c r="V82" s="2"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="12">
+      <c r="A83" s="43">
         <v>7.3</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="19">
+      <c r="C83" s="45">
+        <v>45034</v>
+      </c>
+      <c r="D83" s="45">
+        <v>45034</v>
+      </c>
+      <c r="E83" s="46"/>
+      <c r="F83" s="45">
+        <v>45034</v>
+      </c>
+      <c r="G83" s="45">
+        <v>45034</v>
+      </c>
+      <c r="H83" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I83" s="13"/>
@@ -4459,18 +4632,26 @@
       <c r="V83" s="2"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="19">
+      <c r="C84" s="45">
+        <v>45034</v>
+      </c>
+      <c r="D84" s="45">
+        <v>45034</v>
+      </c>
+      <c r="E84" s="46"/>
+      <c r="F84" s="45">
+        <v>45034</v>
+      </c>
+      <c r="G84" s="45">
+        <v>45034</v>
+      </c>
+      <c r="H84" s="69">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="I84" s="13"/>
@@ -4491,18 +4672,26 @@
       <c r="V84" s="2"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A85" s="12">
+      <c r="A85" s="43">
         <v>7.4</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="19">
+      <c r="C85" s="45">
+        <v>45036</v>
+      </c>
+      <c r="D85" s="45">
+        <v>45036</v>
+      </c>
+      <c r="E85" s="46"/>
+      <c r="F85" s="45">
+        <v>45036</v>
+      </c>
+      <c r="G85" s="45">
+        <v>45036</v>
+      </c>
+      <c r="H85" s="69">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I85" s="13"/>
@@ -4523,18 +4712,32 @@
       <c r="V85" s="2"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A86" s="12">
+      <c r="A86" s="43">
         <v>7.5</v>
       </c>
-      <c r="B86" s="21"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="15"/>
+      <c r="B86" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" s="45">
+        <v>45037</v>
+      </c>
+      <c r="D86" s="45">
+        <v>45040</v>
+      </c>
+      <c r="E86" s="46"/>
+      <c r="F86" s="45">
+        <v>45037</v>
+      </c>
+      <c r="G86" s="45">
+        <v>45040</v>
+      </c>
+      <c r="H86" s="69">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I86" s="13"/>
-      <c r="J86" s="15"/>
+      <c r="J86" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="K86" s="13"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -4549,16 +4752,32 @@
       <c r="V86" s="2"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="15"/>
+      <c r="A87" s="43">
+        <v>7.6</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="45">
+        <v>45041</v>
+      </c>
+      <c r="D87" s="45">
+        <v>45042</v>
+      </c>
+      <c r="E87" s="46"/>
+      <c r="F87" s="45">
+        <v>45041</v>
+      </c>
+      <c r="G87" s="45">
+        <v>45042</v>
+      </c>
+      <c r="H87" s="69">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I87" s="13"/>
-      <c r="J87" s="15"/>
+      <c r="J87" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="K87" s="13"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -4573,16 +4792,32 @@
       <c r="V87" s="2"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="15"/>
+      <c r="A88" s="43">
+        <v>7.7</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" s="45">
+        <v>45044</v>
+      </c>
+      <c r="D88" s="45">
+        <v>45044</v>
+      </c>
+      <c r="E88" s="46"/>
+      <c r="F88" s="45">
+        <v>45044</v>
+      </c>
+      <c r="G88" s="45">
+        <v>45044</v>
+      </c>
+      <c r="H88" s="69">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I88" s="13"/>
-      <c r="J88" s="15"/>
+      <c r="J88" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="K88" s="13"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -4621,18 +4856,26 @@
       <c r="V89" s="2"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="12">
+      <c r="A90" s="70">
         <v>8</v>
       </c>
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="15"/>
+      <c r="C90" s="72">
+        <v>45049</v>
+      </c>
+      <c r="D90" s="72">
+        <v>45061</v>
+      </c>
+      <c r="E90" s="73"/>
+      <c r="F90" s="72">
+        <v>45049</v>
+      </c>
+      <c r="G90" s="72">
+        <v>45061</v>
+      </c>
+      <c r="H90" s="73"/>
       <c r="I90" s="13"/>
       <c r="J90" s="15"/>
       <c r="K90" s="13"/>
@@ -4649,18 +4892,26 @@
       <c r="V90" s="2"/>
     </row>
     <row r="91" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="12">
+      <c r="A91" s="70">
         <v>8.1</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="15"/>
+      <c r="C91" s="72">
+        <v>45049</v>
+      </c>
+      <c r="D91" s="72">
+        <v>45054</v>
+      </c>
+      <c r="E91" s="73"/>
+      <c r="F91" s="72">
+        <v>45049</v>
+      </c>
+      <c r="G91" s="72">
+        <v>45054</v>
+      </c>
+      <c r="H91" s="74"/>
       <c r="I91" s="13"/>
       <c r="J91" s="15"/>
       <c r="K91" s="13"/>
@@ -4676,19 +4927,33 @@
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A92" s="12">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="15"/>
+    <row r="92" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A92" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="72">
+        <v>45049</v>
+      </c>
+      <c r="D92" s="72">
+        <v>45050</v>
+      </c>
+      <c r="E92" s="73"/>
+      <c r="F92" s="72">
+        <v>45049</v>
+      </c>
+      <c r="G92" s="72">
+        <v>45050</v>
+      </c>
+      <c r="H92" s="74">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I92" s="13"/>
-      <c r="J92" s="15"/>
+      <c r="J92" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="K92" s="13"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -4702,17 +4967,33 @@
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="15"/>
+    <row r="93" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A93" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="72">
+        <v>45051</v>
+      </c>
+      <c r="D93" s="72">
+        <v>45052</v>
+      </c>
+      <c r="E93" s="73"/>
+      <c r="F93" s="72">
+        <v>45051</v>
+      </c>
+      <c r="G93" s="72">
+        <v>45052</v>
+      </c>
+      <c r="H93" s="74">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I93" s="13"/>
-      <c r="J93" s="15"/>
+      <c r="J93" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="K93" s="13"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
@@ -4727,16 +5008,32 @@
       <c r="V93" s="2"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="15"/>
+      <c r="A94" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="72">
+        <v>45053</v>
+      </c>
+      <c r="D94" s="72">
+        <v>45054</v>
+      </c>
+      <c r="E94" s="73"/>
+      <c r="F94" s="72">
+        <v>45053</v>
+      </c>
+      <c r="G94" s="72">
+        <v>45054</v>
+      </c>
+      <c r="H94" s="74">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I94" s="13"/>
-      <c r="J94" s="15"/>
+      <c r="J94" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="K94" s="13"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
@@ -4751,14 +5048,26 @@
       <c r="V94" s="2"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="15"/>
+      <c r="A95" s="70">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B95" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" s="72">
+        <v>45054</v>
+      </c>
+      <c r="D95" s="72">
+        <v>45055</v>
+      </c>
+      <c r="E95" s="73"/>
+      <c r="F95" s="72">
+        <v>45054</v>
+      </c>
+      <c r="G95" s="72">
+        <v>45055</v>
+      </c>
+      <c r="H95" s="74"/>
       <c r="I95" s="13"/>
       <c r="J95" s="15"/>
       <c r="K95" s="13"/>
@@ -4774,17 +5083,33 @@
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="15"/>
+    <row r="96" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A96" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C96" s="72">
+        <v>45054</v>
+      </c>
+      <c r="D96" s="72">
+        <v>45055</v>
+      </c>
+      <c r="E96" s="73"/>
+      <c r="F96" s="72">
+        <v>45054</v>
+      </c>
+      <c r="G96" s="72">
+        <v>45055</v>
+      </c>
+      <c r="H96" s="74">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I96" s="13"/>
-      <c r="J96" s="15"/>
+      <c r="J96" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="K96" s="13"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
@@ -4798,17 +5123,33 @@
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="15"/>
+    <row r="97" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A97" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C97" s="72">
+        <v>45054</v>
+      </c>
+      <c r="D97" s="72">
+        <v>45055</v>
+      </c>
+      <c r="E97" s="73"/>
+      <c r="F97" s="72">
+        <v>45054</v>
+      </c>
+      <c r="G97" s="72">
+        <v>45055</v>
+      </c>
+      <c r="H97" s="74">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I97" s="13"/>
-      <c r="J97" s="15"/>
+      <c r="J97" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="K97" s="13"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -4822,17 +5163,33 @@
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="15"/>
+    <row r="98" spans="1:22" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A98" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="C98" s="72">
+        <v>45056</v>
+      </c>
+      <c r="D98" s="72">
+        <v>45056</v>
+      </c>
+      <c r="E98" s="73"/>
+      <c r="F98" s="72">
+        <v>45056</v>
+      </c>
+      <c r="G98" s="72">
+        <v>45056</v>
+      </c>
+      <c r="H98" s="74">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I98" s="13"/>
-      <c r="J98" s="15"/>
+      <c r="J98" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="K98" s="13"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
@@ -4847,14 +5204,26 @@
       <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="15"/>
+      <c r="A99" s="70">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B99" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C99" s="72">
+        <v>45057</v>
+      </c>
+      <c r="D99" s="72">
+        <v>45068</v>
+      </c>
+      <c r="E99" s="73"/>
+      <c r="F99" s="72">
+        <v>45057</v>
+      </c>
+      <c r="G99" s="72">
+        <v>45068</v>
+      </c>
+      <c r="H99" s="73"/>
       <c r="I99" s="13"/>
       <c r="J99" s="15"/>
       <c r="K99" s="13"/>
@@ -4870,17 +5239,33 @@
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="15"/>
+    <row r="100" spans="1:22" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A100" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="B100" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C100" s="72">
+        <v>45057</v>
+      </c>
+      <c r="D100" s="72">
+        <v>45057</v>
+      </c>
+      <c r="E100" s="73"/>
+      <c r="F100" s="72">
+        <v>45057</v>
+      </c>
+      <c r="G100" s="72">
+        <v>45057</v>
+      </c>
+      <c r="H100" s="74">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I100" s="13"/>
-      <c r="J100" s="15"/>
+      <c r="J100" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="K100" s="13"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
@@ -4895,14 +5280,28 @@
       <c r="V100" s="2"/>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="15"/>
+      <c r="A101" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B101" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C101" s="72">
+        <v>45057</v>
+      </c>
+      <c r="D101" s="72">
+        <v>45057</v>
+      </c>
+      <c r="E101" s="73"/>
+      <c r="F101" s="72">
+        <v>45057</v>
+      </c>
+      <c r="G101" s="72">
+        <v>45057</v>
+      </c>
+      <c r="H101" s="74">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I101" s="13"/>
       <c r="J101" s="15"/>
       <c r="K101" s="13"/>
@@ -4918,17 +5317,33 @@
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="15"/>
+    <row r="102" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A102" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="B102" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" s="72">
+        <v>45058</v>
+      </c>
+      <c r="D102" s="72">
+        <v>45058</v>
+      </c>
+      <c r="E102" s="73"/>
+      <c r="F102" s="72">
+        <v>45058</v>
+      </c>
+      <c r="G102" s="72">
+        <v>45058</v>
+      </c>
+      <c r="H102" s="74">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I102" s="13"/>
-      <c r="J102" s="15"/>
+      <c r="J102" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="K102" s="13"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -4943,16 +5358,30 @@
       <c r="V102" s="2"/>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="15"/>
+      <c r="A103" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="B103" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="C103" s="72">
+        <v>45059</v>
+      </c>
+      <c r="D103" s="72">
+        <v>45060</v>
+      </c>
+      <c r="E103" s="73"/>
+      <c r="F103" s="72">
+        <v>45059</v>
+      </c>
+      <c r="G103" s="72">
+        <v>45060</v>
+      </c>
+      <c r="H103" s="73"/>
       <c r="I103" s="13"/>
-      <c r="J103" s="15"/>
+      <c r="J103" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="K103" s="13"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -4966,17 +5395,31 @@
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="15"/>
+    <row r="104" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A104" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" s="72">
+        <v>45061</v>
+      </c>
+      <c r="D104" s="72">
+        <v>45064</v>
+      </c>
+      <c r="E104" s="73"/>
+      <c r="F104" s="72">
+        <v>45061</v>
+      </c>
+      <c r="G104" s="72">
+        <v>45064</v>
+      </c>
+      <c r="H104" s="73"/>
       <c r="I104" s="13"/>
-      <c r="J104" s="15"/>
+      <c r="J104" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="K104" s="13"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
@@ -4990,18 +5433,32 @@
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
+    <row r="105" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A105" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="B105" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="C105" s="72">
+        <v>45065</v>
+      </c>
+      <c r="D105" s="72">
+        <v>45068</v>
+      </c>
+      <c r="E105" s="73"/>
+      <c r="F105" s="72">
+        <v>45065</v>
+      </c>
+      <c r="G105" s="72">
+        <v>45068</v>
+      </c>
+      <c r="H105" s="73"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K105" s="13"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -5014,13 +5471,85 @@
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
     </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A106" s="76"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="78"/>
+      <c r="E106" s="79"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="78"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A107" s="12"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="K14:K16"/>
@@ -5033,23 +5562,23 @@
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="O15:O16"/>
     <mergeCell ref="P15:P16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:I16"/>
   </mergeCells>
   <conditionalFormatting sqref="J77">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J77)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J104">
+  <conditionalFormatting sqref="J17:J107">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Doing">
+      <formula>NOT(ISERROR(SEARCH("Doing",J17)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Doing">
-      <formula>NOT(ISERROR(SEARCH("Doing",J17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/diagram/HaMinhTien_Requeirment.xlsx
+++ b/diagram/HaMinhTien_Requeirment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zanepc\Documents\GitHub\blogVanLang\diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144988D0-8E36-4A62-B763-B947926A7115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91A93D2-5493-41C2-8287-8808C10D5392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -79,42 +79,18 @@
     <t>YÊU CẦU</t>
   </si>
   <si>
-    <t>Xóa yêu cầu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cho phép người dùng xóa yêu cầu </t>
-  </si>
-  <si>
     <t>Cho phép hiển thị tất cả danh sách sinh viên</t>
   </si>
   <si>
-    <t>Chuyển yêu cầu</t>
-  </si>
-  <si>
     <t>Cho phép có thể chuyển yêu cầu cho bất kì ai</t>
   </si>
   <si>
-    <t>Chấp nhận yêu cầu</t>
-  </si>
-  <si>
-    <t>Cho phép chấp nhận yêu cầu khi có người gửi đến</t>
-  </si>
-  <si>
-    <t>Từ chối yêu cầu</t>
-  </si>
-  <si>
-    <t>Cho phép từ chối yêu cầu nếu phạm vi</t>
-  </si>
-  <si>
     <t>Liên hệ</t>
   </si>
   <si>
     <t>Cho phép hiển thị toàn bộ thông tin User đã cấp để có thể liên hệ</t>
   </si>
   <si>
-    <t>Feedback</t>
-  </si>
-  <si>
     <t>Cho phép website tự động cập nhât, người dùng có thể tắt hoặc bật</t>
   </si>
   <si>
@@ -130,9 +106,6 @@
     <t>Website sẽ được Admin sữa chữa ngay khi có feedback từ người dùng.</t>
   </si>
   <si>
-    <t>Cho phép hiển thị thông tin liên hệ để liên lạc</t>
-  </si>
-  <si>
     <t>Trạng thái</t>
   </si>
   <si>
@@ -143,15 +116,6 @@
   </si>
   <si>
     <t>Website cho phép người dùng có thể tạo yêu cầu và gửi để được xử lý</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng tạo báo cáo người dùng lên trên Super</t>
-  </si>
-  <si>
-    <t>Cho phép người dùng tạo phản hồi để sửa chữa</t>
   </si>
   <si>
     <t>FAQ</t>
@@ -585,6 +549,63 @@
   </si>
   <si>
     <t>Hiển thị các bài viết đã được viết bởi Quản trị viên</t>
+  </si>
+  <si>
+    <t>Thông tin liên hệ</t>
+  </si>
+  <si>
+    <t>Cho phép hiển thị các thông tin của người đăng</t>
+  </si>
+  <si>
+    <t>Giao phó yêu cầu</t>
+  </si>
+  <si>
+    <t>Bài viết</t>
+  </si>
+  <si>
+    <t>Cho phép đăng bài viết lên website</t>
+  </si>
+  <si>
+    <t>Cho phép tạo các knowledge để có thể quản lý các bài viết</t>
+  </si>
+  <si>
+    <t>Ràng buộc(Tài khoản) Quản lý</t>
+  </si>
+  <si>
+    <t>Thiết lập tính năng kiểm tra quyền của user, đủ điều kiện mới có thể viết</t>
+  </si>
+  <si>
+    <t>Bài viết được ẩn hoặc hiển thị dưới quản lý của quản trị</t>
+  </si>
+  <si>
+    <t>Hiển thị các Knowledge được tạo bởi Quản trị viên</t>
+  </si>
+  <si>
+    <t>Cho phép hiển thị các knowledge trên trang home</t>
+  </si>
+  <si>
+    <t>Quản lý các Bài viết(Article)</t>
+  </si>
+  <si>
+    <t>Cho phép thêm Article vào Knowledge dưới quyền của Quản trị</t>
+  </si>
+  <si>
+    <t>Cho phép xóa Knowledge không cần thiết</t>
+  </si>
+  <si>
+    <t>Xóa Knowledge</t>
+  </si>
+  <si>
+    <t>Cập nhật Knowledge</t>
+  </si>
+  <si>
+    <t>Cho phép cập nhật Knowledge</t>
+  </si>
+  <si>
+    <t>Ẩn Knowledge</t>
+  </si>
+  <si>
+    <t>Cho phép ẩn Knowledge khi không cần dùng tới.</t>
   </si>
 </sst>
 </file>
@@ -825,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,9 +1001,36 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,6 +1040,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1009,54 +1066,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1366,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9133EE92-6C79-401D-A2F2-17A6EF14E4C9}">
-  <dimension ref="A2:F74"/>
+  <dimension ref="A2:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,23 +1392,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-    </row>
-    <row r="4" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+    </row>
+    <row r="4" spans="1:6" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>0</v>
@@ -1408,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1423,10 +1432,10 @@
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="32" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1439,10 +1448,10 @@
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="32" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1455,10 +1464,10 @@
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="32" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1471,10 +1480,10 @@
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="32" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1487,328 +1496,329 @@
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="32" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
-      <c r="B10" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>37</v>
-      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="31"/>
-      <c r="E10" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>57</v>
-      </c>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="B11" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>170</v>
+      </c>
       <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="26"/>
       <c r="B13" s="26" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="26" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
-      <c r="B15" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>31</v>
-      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="31"/>
-      <c r="E15" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>59</v>
-      </c>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
-      <c r="B16" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>33</v>
-      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="31"/>
-      <c r="E16" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" s="26" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D17" s="31"/>
-      <c r="E17" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
+      <c r="B18" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>15</v>
+      </c>
       <c r="D18" s="31"/>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
+      <c r="B19" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
-        <v>41</v>
-      </c>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
       <c r="B20" s="26" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="26" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="26" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
-      <c r="B23" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>22</v>
-      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>172</v>
+      </c>
       <c r="B24" s="26" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="32"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
       <c r="B25" s="26" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="32"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
       <c r="D26" s="31"/>
       <c r="E26" s="32"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="27"/>
       <c r="D27" s="31"/>
       <c r="E27" s="32"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
+      <c r="B28" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>181</v>
+      </c>
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
+      <c r="B29" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>182</v>
+      </c>
       <c r="D29" s="31"/>
       <c r="E29" s="32"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
-        <v>44</v>
-      </c>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
       <c r="B30" s="26" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="32"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="B31" s="26" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="32"/>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
-      <c r="B32" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="31"/>
       <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="31"/>
       <c r="E33" s="32"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="31"/>
       <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="31"/>
       <c r="E35" s="32"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="31"/>
       <c r="E36" s="32"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="A37" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>18</v>
+      </c>
       <c r="D37" s="31"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="D38" s="31"/>
       <c r="E38" s="32"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="D39" s="31"/>
       <c r="E39" s="32"/>
     </row>
@@ -2056,6 +2066,55 @@
       <c r="C74" s="32"/>
       <c r="D74" s="31"/>
       <c r="E74" s="32"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="31"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="32"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="31"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="32"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="31"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="32"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="31"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="32"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="31"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="32"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="31"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="32"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="31"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2072,7 +2131,7 @@
       <formula>NOT(ISERROR(SEARCH("Cao",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F32">
+  <conditionalFormatting sqref="F5:F39">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",F5)))</formula>
     </cfRule>
@@ -2081,7 +2140,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E74" xr:uid="{3835EC82-C960-4028-AE7A-543229AEB401}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E81" xr:uid="{3835EC82-C960-4028-AE7A-543229AEB401}">
       <formula1>"Cao, TB, Thấp"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2138,7 +2197,7 @@
     <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="3"/>
@@ -2282,30 +2341,30 @@
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="55" t="s">
-        <v>52</v>
+      <c r="A14" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>40</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2320,75 +2379,75 @@
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>54</v>
+      <c r="A15" s="65"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>42</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>42</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
+        <v>43</v>
+      </c>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
     </row>
     <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
+        <v>44</v>
+      </c>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
+        <v>44</v>
+      </c>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
     </row>
     <row r="17" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>1</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C17" s="37">
         <v>44970</v>
@@ -2406,7 +2465,7 @@
       <c r="H17" s="15"/>
       <c r="I17" s="13"/>
       <c r="J17" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="2"/>
@@ -2426,7 +2485,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C18" s="37">
         <v>44970</v>
@@ -2445,10 +2504,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="2"/>
@@ -2468,7 +2527,7 @@
         <v>1.2</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C19" s="37">
         <v>44970</v>
@@ -2485,10 +2544,10 @@
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="13" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="2"/>
@@ -2508,7 +2567,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C20" s="14">
         <v>44977</v>
@@ -2544,7 +2603,7 @@
         <v>2.1</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C21" s="14">
         <v>44977</v>
@@ -2561,7 +2620,7 @@
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="13"/>
@@ -2582,7 +2641,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -2688,7 +2747,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="13"/>
       <c r="J26" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="2"/>
@@ -2708,7 +2767,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C27" s="41">
         <v>44991</v>
@@ -2725,10 +2784,10 @@
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="13" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="2"/>
@@ -2748,7 +2807,7 @@
         <v>3.1</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C28" s="41">
         <v>44991</v>
@@ -2766,7 +2825,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="13"/>
       <c r="J28" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="2"/>
@@ -2786,7 +2845,7 @@
         <v>3.2</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C29" s="41">
         <v>44992</v>
@@ -2804,7 +2863,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="13"/>
       <c r="J29" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K29" s="13"/>
       <c r="L29" s="2"/>
@@ -2824,7 +2883,7 @@
         <v>3.3</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C30" s="41">
         <v>44993</v>
@@ -2842,7 +2901,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="13"/>
       <c r="J30" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K30" s="13"/>
       <c r="L30" s="2"/>
@@ -2862,7 +2921,7 @@
         <v>3.4</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C31" s="41">
         <v>44996</v>
@@ -2880,7 +2939,7 @@
       <c r="H31" s="15"/>
       <c r="I31" s="13"/>
       <c r="J31" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="2"/>
@@ -2924,7 +2983,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C33" s="45">
         <v>44998</v>
@@ -2941,10 +3000,10 @@
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="13" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="2"/>
@@ -2964,7 +3023,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
@@ -2992,7 +3051,7 @@
         <v>4.2</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
@@ -3002,7 +3061,7 @@
       <c r="H35" s="15"/>
       <c r="I35" s="13"/>
       <c r="J35" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K35" s="13"/>
       <c r="L35" s="2"/>
@@ -3022,7 +3081,7 @@
         <v>4.3</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
@@ -3032,7 +3091,7 @@
       <c r="H36" s="15"/>
       <c r="I36" s="13"/>
       <c r="J36" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K36" s="13"/>
       <c r="L36" s="2"/>
@@ -3052,7 +3111,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
@@ -3062,10 +3121,10 @@
       <c r="H37" s="15"/>
       <c r="I37" s="13"/>
       <c r="J37" s="16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -3084,7 +3143,7 @@
         <v>4.5</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
@@ -3093,10 +3152,10 @@
       <c r="G38" s="45"/>
       <c r="H38" s="15"/>
       <c r="I38" s="13" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K38" s="13"/>
       <c r="L38" s="2"/>
@@ -3116,7 +3175,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
@@ -3126,7 +3185,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="13"/>
       <c r="J39" s="16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K39" s="13"/>
       <c r="L39" s="2"/>
@@ -3146,7 +3205,7 @@
         <v>4.7</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C40" s="45"/>
       <c r="D40" s="45"/>
@@ -3156,7 +3215,7 @@
       <c r="H40" s="15"/>
       <c r="I40" s="13"/>
       <c r="J40" s="16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K40" s="13"/>
       <c r="L40" s="2"/>
@@ -3176,7 +3235,7 @@
         <v>4.8</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C41" s="45"/>
       <c r="D41" s="45"/>
@@ -3186,7 +3245,7 @@
       <c r="H41" s="15"/>
       <c r="I41" s="13"/>
       <c r="J41" s="16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K41" s="13"/>
       <c r="L41" s="2"/>
@@ -3206,7 +3265,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
@@ -3216,7 +3275,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="13"/>
       <c r="J42" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K42" s="13"/>
       <c r="L42" s="2"/>
@@ -3260,7 +3319,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C44" s="24">
         <v>45012</v>
@@ -3296,7 +3355,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C45" s="24">
         <v>45012</v>
@@ -3316,7 +3375,7 @@
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K45" s="13"/>
       <c r="L45" s="2"/>
@@ -3336,7 +3395,7 @@
         <v>5.2</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C46" s="24">
         <v>45012</v>
@@ -3356,7 +3415,7 @@
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K46" s="13"/>
       <c r="L46" s="2"/>
@@ -3376,7 +3435,7 @@
         <v>5.3</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C47" s="24">
         <v>45012</v>
@@ -3396,7 +3455,7 @@
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K47" s="13"/>
       <c r="L47" s="2"/>
@@ -3416,7 +3475,7 @@
         <v>5.4</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C48" s="24">
         <v>45013</v>
@@ -3436,7 +3495,7 @@
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K48" s="13"/>
       <c r="L48" s="2"/>
@@ -3456,7 +3515,7 @@
         <v>5.5</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C49" s="24">
         <v>45013</v>
@@ -3518,7 +3577,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C51" s="50">
         <v>45015</v>
@@ -3554,7 +3613,7 @@
         <v>6.1</v>
       </c>
       <c r="B52" s="49" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C52" s="50">
         <v>45015</v>
@@ -3574,7 +3633,7 @@
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K52" s="13"/>
       <c r="L52" s="2"/>
@@ -3614,7 +3673,7 @@
       </c>
       <c r="I53" s="13"/>
       <c r="J53" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K53" s="13"/>
       <c r="L53" s="2"/>
@@ -3631,10 +3690,10 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C54" s="50">
         <v>45015</v>
@@ -3670,7 +3729,7 @@
         <v>6.3</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C55" s="50">
         <v>45016</v>
@@ -3690,7 +3749,7 @@
       </c>
       <c r="I55" s="13"/>
       <c r="J55" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K55" s="13"/>
       <c r="L55" s="2"/>
@@ -3707,10 +3766,10 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B56" s="49" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C56" s="50"/>
       <c r="D56" s="50"/>
@@ -3738,7 +3797,7 @@
         <v>6.4</v>
       </c>
       <c r="B57" s="49" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C57" s="50">
         <v>45017</v>
@@ -3758,7 +3817,7 @@
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K57" s="13"/>
       <c r="L57" s="2"/>
@@ -3775,10 +3834,10 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B58" s="49" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="50"/>
@@ -3805,10 +3864,10 @@
     </row>
     <row r="59" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C59" s="50"/>
       <c r="D59" s="50"/>
@@ -3838,7 +3897,7 @@
         <v>6.5</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C60" s="50">
         <v>45019</v>
@@ -3858,7 +3917,7 @@
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K60" s="13"/>
       <c r="L60" s="2"/>
@@ -3875,10 +3934,10 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C61" s="50"/>
       <c r="D61" s="50"/>
@@ -3906,7 +3965,7 @@
         <v>6.6</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C62" s="50">
         <v>45021</v>
@@ -3941,10 +4000,10 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C63" s="50"/>
       <c r="D63" s="50"/>
@@ -3969,10 +4028,10 @@
     </row>
     <row r="64" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C64" s="50"/>
       <c r="D64" s="50"/>
@@ -3997,10 +4056,10 @@
     </row>
     <row r="65" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C65" s="50"/>
       <c r="D65" s="50"/>
@@ -4028,7 +4087,7 @@
         <v>6.7</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C66" s="50">
         <v>45023</v>
@@ -4048,7 +4107,7 @@
       </c>
       <c r="I66" s="13"/>
       <c r="J66" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K66" s="13"/>
       <c r="L66" s="2"/>
@@ -4065,10 +4124,10 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C67" s="50"/>
       <c r="D67" s="50"/>
@@ -4078,7 +4137,7 @@
       <c r="H67" s="52"/>
       <c r="I67" s="13"/>
       <c r="J67" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K67" s="13"/>
       <c r="L67" s="2"/>
@@ -4095,10 +4154,10 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C68" s="50"/>
       <c r="D68" s="50"/>
@@ -4108,7 +4167,7 @@
       <c r="H68" s="52"/>
       <c r="I68" s="13"/>
       <c r="J68" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K68" s="13"/>
       <c r="L68" s="2"/>
@@ -4125,10 +4184,10 @@
     </row>
     <row r="69" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B69" s="49" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C69" s="50"/>
       <c r="D69" s="50"/>
@@ -4138,7 +4197,7 @@
       <c r="H69" s="52"/>
       <c r="I69" s="13"/>
       <c r="J69" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K69" s="13"/>
       <c r="L69" s="2"/>
@@ -4155,10 +4214,10 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B70" s="49" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C70" s="50"/>
       <c r="D70" s="50"/>
@@ -4168,7 +4227,7 @@
       <c r="H70" s="53"/>
       <c r="I70" s="13"/>
       <c r="J70" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K70" s="13"/>
       <c r="L70" s="2"/>
@@ -4185,10 +4244,10 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C71" s="50"/>
       <c r="D71" s="50"/>
@@ -4198,7 +4257,7 @@
       <c r="H71" s="53"/>
       <c r="I71" s="13"/>
       <c r="J71" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K71" s="13"/>
       <c r="L71" s="2"/>
@@ -4215,10 +4274,10 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B72" s="49" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C72" s="50"/>
       <c r="D72" s="50"/>
@@ -4228,7 +4287,7 @@
       <c r="H72" s="53"/>
       <c r="I72" s="13"/>
       <c r="J72" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K72" s="13"/>
       <c r="L72" s="2"/>
@@ -4296,7 +4355,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C75" s="45">
         <v>45027</v>
@@ -4311,7 +4370,7 @@
       <c r="G75" s="45">
         <v>45044</v>
       </c>
-      <c r="H75" s="68"/>
+      <c r="H75" s="54"/>
       <c r="I75" s="13"/>
       <c r="J75" s="15"/>
       <c r="K75" s="13"/>
@@ -4332,7 +4391,7 @@
         <v>7.1</v>
       </c>
       <c r="B76" s="44" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C76" s="45"/>
       <c r="D76" s="45"/>
@@ -4355,12 +4414,12 @@
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
     </row>
-    <row r="77" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="43" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C77" s="45">
         <v>45027</v>
@@ -4375,12 +4434,12 @@
       <c r="G77" s="45">
         <v>45029</v>
       </c>
-      <c r="H77" s="69">
+      <c r="H77" s="55">
         <v>0.16666666666666666</v>
       </c>
       <c r="I77" s="13"/>
       <c r="J77" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K77" s="13"/>
       <c r="L77" s="2"/>
@@ -4397,10 +4456,10 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B78" s="44" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C78" s="45">
         <v>45029</v>
@@ -4415,12 +4474,12 @@
       <c r="G78" s="45">
         <v>45029</v>
       </c>
-      <c r="H78" s="69">
+      <c r="H78" s="55">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I78" s="13"/>
       <c r="J78" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K78" s="13"/>
       <c r="L78" s="2"/>
@@ -4440,7 +4499,7 @@
         <v>7.2</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C79" s="45">
         <v>45031</v>
@@ -4455,10 +4514,10 @@
       <c r="G79" s="45">
         <v>45033</v>
       </c>
-      <c r="H79" s="69"/>
+      <c r="H79" s="55"/>
       <c r="I79" s="13"/>
       <c r="J79" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K79" s="13"/>
       <c r="L79" s="2"/>
@@ -4475,10 +4534,10 @@
     </row>
     <row r="80" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A80" s="43" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C80" s="45">
         <v>45031</v>
@@ -4493,12 +4552,12 @@
       <c r="G80" s="45">
         <v>45031</v>
       </c>
-      <c r="H80" s="69">
+      <c r="H80" s="55">
         <v>0.16666666666666666</v>
       </c>
       <c r="I80" s="13"/>
       <c r="J80" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K80" s="13"/>
       <c r="L80" s="2"/>
@@ -4515,10 +4574,10 @@
     </row>
     <row r="81" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A81" s="43" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C81" s="45">
         <v>45032</v>
@@ -4533,12 +4592,12 @@
       <c r="G81" s="45">
         <v>45032</v>
       </c>
-      <c r="H81" s="69">
+      <c r="H81" s="55">
         <v>0.16666666666666666</v>
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K81" s="13"/>
       <c r="L81" s="2"/>
@@ -4555,10 +4614,10 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="43" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C82" s="45">
         <v>45033</v>
@@ -4573,7 +4632,7 @@
       <c r="G82" s="45">
         <v>45033</v>
       </c>
-      <c r="H82" s="69">
+      <c r="H82" s="55">
         <v>0.16666666666666666</v>
       </c>
       <c r="I82" s="13"/>
@@ -4596,7 +4655,7 @@
         <v>7.3</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C83" s="45">
         <v>45034</v>
@@ -4611,12 +4670,12 @@
       <c r="G83" s="45">
         <v>45034</v>
       </c>
-      <c r="H83" s="69">
+      <c r="H83" s="55">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I83" s="13"/>
       <c r="J83" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K83" s="13"/>
       <c r="L83" s="2"/>
@@ -4633,10 +4692,10 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="43" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C84" s="45">
         <v>45034</v>
@@ -4651,12 +4710,12 @@
       <c r="G84" s="45">
         <v>45034</v>
       </c>
-      <c r="H84" s="69">
+      <c r="H84" s="55">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="I84" s="13"/>
       <c r="J84" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K84" s="13"/>
       <c r="L84" s="2"/>
@@ -4676,7 +4735,7 @@
         <v>7.4</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C85" s="45">
         <v>45036</v>
@@ -4691,12 +4750,12 @@
       <c r="G85" s="45">
         <v>45036</v>
       </c>
-      <c r="H85" s="69">
+      <c r="H85" s="55">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I85" s="13"/>
       <c r="J85" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K85" s="13"/>
       <c r="L85" s="2"/>
@@ -4716,7 +4775,7 @@
         <v>7.5</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C86" s="45">
         <v>45037</v>
@@ -4731,12 +4790,12 @@
       <c r="G86" s="45">
         <v>45040</v>
       </c>
-      <c r="H86" s="69">
+      <c r="H86" s="55">
         <v>0.16666666666666666</v>
       </c>
       <c r="I86" s="13"/>
       <c r="J86" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K86" s="13"/>
       <c r="L86" s="2"/>
@@ -4756,7 +4815,7 @@
         <v>7.6</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C87" s="45">
         <v>45041</v>
@@ -4771,12 +4830,12 @@
       <c r="G87" s="45">
         <v>45042</v>
       </c>
-      <c r="H87" s="69">
+      <c r="H87" s="55">
         <v>0.16666666666666666</v>
       </c>
       <c r="I87" s="13"/>
       <c r="J87" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K87" s="13"/>
       <c r="L87" s="2"/>
@@ -4796,7 +4855,7 @@
         <v>7.7</v>
       </c>
       <c r="B88" s="44" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C88" s="45">
         <v>45044</v>
@@ -4811,12 +4870,12 @@
       <c r="G88" s="45">
         <v>45044</v>
       </c>
-      <c r="H88" s="69">
+      <c r="H88" s="55">
         <v>0.16666666666666666</v>
       </c>
       <c r="I88" s="13"/>
       <c r="J88" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K88" s="13"/>
       <c r="L88" s="2"/>
@@ -4856,26 +4915,26 @@
       <c r="V89" s="2"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="70">
+      <c r="A90" s="56">
         <v>8</v>
       </c>
-      <c r="B90" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="C90" s="72">
+      <c r="B90" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="58">
         <v>45049</v>
       </c>
-      <c r="D90" s="72">
+      <c r="D90" s="58">
         <v>45061</v>
       </c>
-      <c r="E90" s="73"/>
-      <c r="F90" s="72">
+      <c r="E90" s="59"/>
+      <c r="F90" s="58">
         <v>45049</v>
       </c>
-      <c r="G90" s="72">
+      <c r="G90" s="58">
         <v>45061</v>
       </c>
-      <c r="H90" s="73"/>
+      <c r="H90" s="59"/>
       <c r="I90" s="13"/>
       <c r="J90" s="15"/>
       <c r="K90" s="13"/>
@@ -4892,26 +4951,26 @@
       <c r="V90" s="2"/>
     </row>
     <row r="91" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="70">
+      <c r="A91" s="56">
         <v>8.1</v>
       </c>
-      <c r="B91" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="C91" s="72">
+      <c r="B91" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="58">
         <v>45049</v>
       </c>
-      <c r="D91" s="72">
+      <c r="D91" s="58">
         <v>45054</v>
       </c>
-      <c r="E91" s="73"/>
-      <c r="F91" s="72">
+      <c r="E91" s="59"/>
+      <c r="F91" s="58">
         <v>45049</v>
       </c>
-      <c r="G91" s="72">
+      <c r="G91" s="58">
         <v>45054</v>
       </c>
-      <c r="H91" s="74"/>
+      <c r="H91" s="60"/>
       <c r="I91" s="13"/>
       <c r="J91" s="15"/>
       <c r="K91" s="13"/>
@@ -4928,31 +4987,31 @@
       <c r="V91" s="2"/>
     </row>
     <row r="92" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A92" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="B92" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="C92" s="72">
+      <c r="A92" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="58">
         <v>45049</v>
       </c>
-      <c r="D92" s="72">
+      <c r="D92" s="58">
         <v>45050</v>
       </c>
-      <c r="E92" s="73"/>
-      <c r="F92" s="72">
+      <c r="E92" s="59"/>
+      <c r="F92" s="58">
         <v>45049</v>
       </c>
-      <c r="G92" s="72">
+      <c r="G92" s="58">
         <v>45050</v>
       </c>
-      <c r="H92" s="74">
+      <c r="H92" s="60">
         <v>0.16666666666666666</v>
       </c>
       <c r="I92" s="13"/>
       <c r="J92" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K92" s="13"/>
       <c r="L92" s="2"/>
@@ -4968,31 +5027,31 @@
       <c r="V92" s="2"/>
     </row>
     <row r="93" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="B93" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="C93" s="72">
+      <c r="A93" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="58">
         <v>45051</v>
       </c>
-      <c r="D93" s="72">
+      <c r="D93" s="58">
         <v>45052</v>
       </c>
-      <c r="E93" s="73"/>
-      <c r="F93" s="72">
+      <c r="E93" s="59"/>
+      <c r="F93" s="58">
         <v>45051</v>
       </c>
-      <c r="G93" s="72">
+      <c r="G93" s="58">
         <v>45052</v>
       </c>
-      <c r="H93" s="74">
+      <c r="H93" s="60">
         <v>0.16666666666666666</v>
       </c>
       <c r="I93" s="13"/>
       <c r="J93" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K93" s="13"/>
       <c r="L93" s="2"/>
@@ -5008,31 +5067,31 @@
       <c r="V93" s="2"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="B94" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="C94" s="72">
+      <c r="A94" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C94" s="58">
         <v>45053</v>
       </c>
-      <c r="D94" s="72">
+      <c r="D94" s="58">
         <v>45054</v>
       </c>
-      <c r="E94" s="73"/>
-      <c r="F94" s="72">
+      <c r="E94" s="59"/>
+      <c r="F94" s="58">
         <v>45053</v>
       </c>
-      <c r="G94" s="72">
+      <c r="G94" s="58">
         <v>45054</v>
       </c>
-      <c r="H94" s="74">
+      <c r="H94" s="60">
         <v>0.16666666666666666</v>
       </c>
       <c r="I94" s="13"/>
       <c r="J94" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K94" s="13"/>
       <c r="L94" s="2"/>
@@ -5048,26 +5107,26 @@
       <c r="V94" s="2"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" s="70">
+      <c r="A95" s="56">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B95" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="C95" s="72">
+      <c r="B95" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" s="58">
         <v>45054</v>
       </c>
-      <c r="D95" s="72">
+      <c r="D95" s="58">
         <v>45055</v>
       </c>
-      <c r="E95" s="73"/>
-      <c r="F95" s="72">
+      <c r="E95" s="59"/>
+      <c r="F95" s="58">
         <v>45054</v>
       </c>
-      <c r="G95" s="72">
+      <c r="G95" s="58">
         <v>45055</v>
       </c>
-      <c r="H95" s="74"/>
+      <c r="H95" s="60"/>
       <c r="I95" s="13"/>
       <c r="J95" s="15"/>
       <c r="K95" s="13"/>
@@ -5084,31 +5143,31 @@
       <c r="V95" s="2"/>
     </row>
     <row r="96" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A96" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="B96" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="C96" s="72">
+      <c r="A96" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" s="58">
         <v>45054</v>
       </c>
-      <c r="D96" s="72">
+      <c r="D96" s="58">
         <v>45055</v>
       </c>
-      <c r="E96" s="73"/>
-      <c r="F96" s="72">
+      <c r="E96" s="59"/>
+      <c r="F96" s="58">
         <v>45054</v>
       </c>
-      <c r="G96" s="72">
+      <c r="G96" s="58">
         <v>45055</v>
       </c>
-      <c r="H96" s="74">
+      <c r="H96" s="60">
         <v>0.16666666666666666</v>
       </c>
       <c r="I96" s="13"/>
       <c r="J96" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K96" s="13"/>
       <c r="L96" s="2"/>
@@ -5124,31 +5183,31 @@
       <c r="V96" s="2"/>
     </row>
     <row r="97" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A97" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="B97" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="C97" s="72">
+      <c r="A97" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="58">
         <v>45054</v>
       </c>
-      <c r="D97" s="72">
+      <c r="D97" s="58">
         <v>45055</v>
       </c>
-      <c r="E97" s="73"/>
-      <c r="F97" s="72">
+      <c r="E97" s="59"/>
+      <c r="F97" s="58">
         <v>45054</v>
       </c>
-      <c r="G97" s="72">
+      <c r="G97" s="58">
         <v>45055</v>
       </c>
-      <c r="H97" s="74">
+      <c r="H97" s="60">
         <v>0.16666666666666666</v>
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K97" s="13"/>
       <c r="L97" s="2"/>
@@ -5164,31 +5223,31 @@
       <c r="V97" s="2"/>
     </row>
     <row r="98" spans="1:22" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A98" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="B98" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="C98" s="72">
+      <c r="A98" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C98" s="58">
         <v>45056</v>
       </c>
-      <c r="D98" s="72">
+      <c r="D98" s="58">
         <v>45056</v>
       </c>
-      <c r="E98" s="73"/>
-      <c r="F98" s="72">
+      <c r="E98" s="59"/>
+      <c r="F98" s="58">
         <v>45056</v>
       </c>
-      <c r="G98" s="72">
+      <c r="G98" s="58">
         <v>45056</v>
       </c>
-      <c r="H98" s="74">
+      <c r="H98" s="60">
         <v>0.16666666666666666</v>
       </c>
       <c r="I98" s="13"/>
       <c r="J98" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K98" s="13"/>
       <c r="L98" s="2"/>
@@ -5204,26 +5263,26 @@
       <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A99" s="70">
+      <c r="A99" s="56">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B99" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="C99" s="72">
+      <c r="B99" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C99" s="58">
         <v>45057</v>
       </c>
-      <c r="D99" s="72">
+      <c r="D99" s="58">
         <v>45068</v>
       </c>
-      <c r="E99" s="73"/>
-      <c r="F99" s="72">
+      <c r="E99" s="59"/>
+      <c r="F99" s="58">
         <v>45057</v>
       </c>
-      <c r="G99" s="72">
+      <c r="G99" s="58">
         <v>45068</v>
       </c>
-      <c r="H99" s="73"/>
+      <c r="H99" s="59"/>
       <c r="I99" s="13"/>
       <c r="J99" s="15"/>
       <c r="K99" s="13"/>
@@ -5240,31 +5299,31 @@
       <c r="V99" s="2"/>
     </row>
     <row r="100" spans="1:22" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A100" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="B100" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="C100" s="72">
+      <c r="A100" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" s="58">
         <v>45057</v>
       </c>
-      <c r="D100" s="72">
+      <c r="D100" s="58">
         <v>45057</v>
       </c>
-      <c r="E100" s="73"/>
-      <c r="F100" s="72">
+      <c r="E100" s="59"/>
+      <c r="F100" s="58">
         <v>45057</v>
       </c>
-      <c r="G100" s="72">
+      <c r="G100" s="58">
         <v>45057</v>
       </c>
-      <c r="H100" s="74">
+      <c r="H100" s="60">
         <v>0.16666666666666666</v>
       </c>
       <c r="I100" s="13"/>
       <c r="J100" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K100" s="13"/>
       <c r="L100" s="2"/>
@@ -5280,26 +5339,26 @@
       <c r="V100" s="2"/>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A101" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="B101" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="C101" s="72">
+      <c r="A101" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B101" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C101" s="58">
         <v>45057</v>
       </c>
-      <c r="D101" s="72">
+      <c r="D101" s="58">
         <v>45057</v>
       </c>
-      <c r="E101" s="73"/>
-      <c r="F101" s="72">
+      <c r="E101" s="59"/>
+      <c r="F101" s="58">
         <v>45057</v>
       </c>
-      <c r="G101" s="72">
+      <c r="G101" s="58">
         <v>45057</v>
       </c>
-      <c r="H101" s="74">
+      <c r="H101" s="60">
         <v>0.16666666666666666</v>
       </c>
       <c r="I101" s="13"/>
@@ -5318,31 +5377,31 @@
       <c r="V101" s="2"/>
     </row>
     <row r="102" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A102" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="B102" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="C102" s="72">
+      <c r="A102" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C102" s="58">
         <v>45058</v>
       </c>
-      <c r="D102" s="72">
+      <c r="D102" s="58">
         <v>45058</v>
       </c>
-      <c r="E102" s="73"/>
-      <c r="F102" s="72">
+      <c r="E102" s="59"/>
+      <c r="F102" s="58">
         <v>45058</v>
       </c>
-      <c r="G102" s="72">
+      <c r="G102" s="58">
         <v>45058</v>
       </c>
-      <c r="H102" s="74">
+      <c r="H102" s="60">
         <v>0.16666666666666666</v>
       </c>
       <c r="I102" s="13"/>
       <c r="J102" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K102" s="13"/>
       <c r="L102" s="2"/>
@@ -5358,29 +5417,29 @@
       <c r="V102" s="2"/>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A103" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="B103" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="C103" s="72">
+      <c r="A103" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B103" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" s="58">
         <v>45059</v>
       </c>
-      <c r="D103" s="72">
+      <c r="D103" s="58">
         <v>45060</v>
       </c>
-      <c r="E103" s="73"/>
-      <c r="F103" s="72">
+      <c r="E103" s="59"/>
+      <c r="F103" s="58">
         <v>45059</v>
       </c>
-      <c r="G103" s="72">
+      <c r="G103" s="58">
         <v>45060</v>
       </c>
-      <c r="H103" s="73"/>
+      <c r="H103" s="59"/>
       <c r="I103" s="13"/>
       <c r="J103" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K103" s="13"/>
       <c r="L103" s="2"/>
@@ -5396,29 +5455,29 @@
       <c r="V103" s="2"/>
     </row>
     <row r="104" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A104" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="B104" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="C104" s="72">
+      <c r="A104" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104" s="58">
         <v>45061</v>
       </c>
-      <c r="D104" s="72">
+      <c r="D104" s="58">
         <v>45064</v>
       </c>
-      <c r="E104" s="73"/>
-      <c r="F104" s="72">
+      <c r="E104" s="59"/>
+      <c r="F104" s="58">
         <v>45061</v>
       </c>
-      <c r="G104" s="72">
+      <c r="G104" s="58">
         <v>45064</v>
       </c>
-      <c r="H104" s="73"/>
+      <c r="H104" s="59"/>
       <c r="I104" s="13"/>
       <c r="J104" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K104" s="13"/>
       <c r="L104" s="2"/>
@@ -5434,29 +5493,29 @@
       <c r="V104" s="2"/>
     </row>
     <row r="105" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A105" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="B105" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="C105" s="72">
+      <c r="A105" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B105" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" s="58">
         <v>45065</v>
       </c>
-      <c r="D105" s="72">
+      <c r="D105" s="58">
         <v>45068</v>
       </c>
-      <c r="E105" s="73"/>
-      <c r="F105" s="72">
+      <c r="E105" s="59"/>
+      <c r="F105" s="58">
         <v>45065</v>
       </c>
-      <c r="G105" s="72">
+      <c r="G105" s="58">
         <v>45068</v>
       </c>
-      <c r="H105" s="73"/>
+      <c r="H105" s="59"/>
       <c r="I105" s="13"/>
       <c r="J105" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K105" s="13"/>
       <c r="L105" s="2"/>
@@ -5472,14 +5531,14 @@
       <c r="V105" s="2"/>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A106" s="76"/>
-      <c r="B106" s="77"/>
-      <c r="C106" s="78"/>
-      <c r="D106" s="78"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="78"/>
-      <c r="G106" s="78"/>
-      <c r="H106" s="79"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="15"/>
       <c r="I106" s="13"/>
       <c r="J106" s="15"/>
       <c r="K106" s="13"/>
@@ -5545,11 +5604,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:I16"/>
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="K14:K16"/>
@@ -5562,11 +5621,11 @@
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="O15:O16"/>
     <mergeCell ref="P15:P16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
   </mergeCells>
   <conditionalFormatting sqref="J77">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Done">

--- a/diagram/HaMinhTien_Requeirment.xlsx
+++ b/diagram/HaMinhTien_Requeirment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zanepc\Documents\GitHub\blogVanLang\diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91A93D2-5493-41C2-8287-8808C10D5392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0C9D10-ABB4-48A4-9A1D-45A88D99E95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mô tả Yêu cầu chức năng" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="194">
   <si>
     <t>ID</t>
   </si>
@@ -563,12 +563,6 @@
     <t>Bài viết</t>
   </si>
   <si>
-    <t>Cho phép đăng bài viết lên website</t>
-  </si>
-  <si>
-    <t>Cho phép tạo các knowledge để có thể quản lý các bài viết</t>
-  </si>
-  <si>
     <t>Ràng buộc(Tài khoản) Quản lý</t>
   </si>
   <si>
@@ -596,9 +590,6 @@
     <t>Xóa Knowledge</t>
   </si>
   <si>
-    <t>Cập nhật Knowledge</t>
-  </si>
-  <si>
     <t>Cho phép cập nhật Knowledge</t>
   </si>
   <si>
@@ -606,6 +597,33 @@
   </si>
   <si>
     <t>Cho phép ẩn Knowledge khi không cần dùng tới.</t>
+  </si>
+  <si>
+    <t>Cho phép xoá bài viết</t>
+  </si>
+  <si>
+    <t>Hiển thị người đăng bài</t>
+  </si>
+  <si>
+    <t>Cho phép hiển thị người đăng bài</t>
+  </si>
+  <si>
+    <t>Cho phép chỉnh sửa bài viết</t>
+  </si>
+  <si>
+    <t>Ẩn bài viết</t>
+  </si>
+  <si>
+    <t>Cho phép ẩn bài viết nếu như chưa được phép hiện lên</t>
+  </si>
+  <si>
+    <t>Xoá bài viết</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa Knowledge</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa bài viết</t>
   </si>
 </sst>
 </file>
@@ -1028,18 +1046,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1048,24 +1084,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1375,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9133EE92-6C79-401D-A2F2-17A6EF14E4C9}">
-  <dimension ref="A2:F81"/>
+  <dimension ref="A2:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,7 +1418,7 @@
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
     </row>
-    <row r="4" spans="1:6" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -1637,95 +1655,95 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
-      <c r="B21" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>173</v>
-      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="31"/>
       <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
+      <c r="A22" s="26" t="s">
+        <v>172</v>
+      </c>
       <c r="B22" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
+      <c r="B23" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>174</v>
+      </c>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
-        <v>172</v>
-      </c>
+      <c r="A24" s="26"/>
       <c r="B24" s="26" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="32"/>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
       <c r="B25" s="26" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>187</v>
+      </c>
       <c r="D26" s="31"/>
       <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
-        <v>167</v>
-      </c>
+      <c r="A27" s="26"/>
       <c r="B27" s="26" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
-      <c r="B28" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>181</v>
-      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
+      <c r="A29" s="26" t="s">
+        <v>167</v>
+      </c>
       <c r="B29" s="26" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D29" s="31"/>
       <c r="E29" s="32"/>
@@ -1733,10 +1751,10 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
       <c r="B30" s="26" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="32"/>
@@ -1744,25 +1762,33 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="B31" s="26" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
+      <c r="B32" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>182</v>
+      </c>
       <c r="D32" s="31"/>
       <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
+      <c r="B33" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>184</v>
+      </c>
       <c r="D33" s="31"/>
       <c r="E33" s="32"/>
     </row>
@@ -1788,51 +1814,51 @@
       <c r="E36" s="32"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>18</v>
-      </c>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="31"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
-      <c r="B38" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="31"/>
       <c r="E38" s="32"/>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="B39" s="26" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="32"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="D40" s="31"/>
       <c r="E40" s="32"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="D41" s="31"/>
       <c r="E41" s="32"/>
     </row>
@@ -2115,6 +2141,20 @@
       <c r="C81" s="32"/>
       <c r="D81" s="31"/>
       <c r="E81" s="32"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="31"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="32"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="31"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2131,7 +2171,7 @@
       <formula>NOT(ISERROR(SEARCH("Cao",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F39">
+  <conditionalFormatting sqref="F5:F41">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",F5)))</formula>
     </cfRule>
@@ -2140,7 +2180,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E81" xr:uid="{3835EC82-C960-4028-AE7A-543229AEB401}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E83" xr:uid="{3835EC82-C960-4028-AE7A-543229AEB401}">
       <formula1>"Cao, TB, Thấp"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2341,29 +2381,29 @@
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="73" t="s">
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="64" t="s">
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="64" t="s">
+      <c r="J14" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="64" t="s">
+      <c r="K14" s="63" t="s">
         <v>40</v>
       </c>
       <c r="L14" s="2"/>
@@ -2379,68 +2419,68 @@
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="67" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="73" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="73" t="s">
         <v>42</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
     </row>
     <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
       <c r="H16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
     </row>
     <row r="17" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
@@ -5604,11 +5644,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="K14:K16"/>
@@ -5621,11 +5661,11 @@
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="O15:O16"/>
     <mergeCell ref="P15:P16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:I16"/>
   </mergeCells>
   <conditionalFormatting sqref="J77">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Done">

--- a/diagram/HaMinhTien_Requeirment.xlsx
+++ b/diagram/HaMinhTien_Requeirment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zanepc\Documents\GitHub\blogVanLang\diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0C9D10-ABB4-48A4-9A1D-45A88D99E95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A7B7A5-6BA8-4131-A984-257077AAE32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mô tả Yêu cầu chức năng" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="195">
   <si>
     <t>ID</t>
   </si>
@@ -624,6 +624,9 @@
   </si>
   <si>
     <t>Chỉnh sửa bài viết</t>
+  </si>
+  <si>
+    <t>Issue</t>
   </si>
 </sst>
 </file>
@@ -864,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1083,13 +1086,59 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1395,7 +1444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9133EE92-6C79-401D-A2F2-17A6EF14E4C9}">
   <dimension ref="A2:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -1418,7 +1467,7 @@
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
     </row>
-    <row r="4" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -2161,21 +2210,21 @@
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E1 F4 E3:E1048576">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Thấp">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Thấp">
       <formula>NOT(ISERROR(SEARCH("Thấp",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="TB">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="TB">
       <formula>NOT(ISERROR(SEARCH("TB",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Cao">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Cao">
       <formula>NOT(ISERROR(SEARCH("Cao",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F41">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Doing">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Doing">
       <formula>NOT(ISERROR(SEARCH("Doing",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2190,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A5D836-F362-4798-BA98-786BDAE98677}">
-  <dimension ref="A7:V108"/>
+  <dimension ref="A7:V174"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2624,7 +2673,9 @@
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="16"/>
+      <c r="J20" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K20" s="13"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2662,7 +2713,9 @@
       <c r="I21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="16"/>
+      <c r="J21" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K21" s="13"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -2690,7 +2743,9 @@
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="16"/>
+      <c r="J22" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K22" s="13"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2714,7 +2769,9 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="16"/>
+      <c r="J23" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K23" s="13"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2738,7 +2795,9 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="16"/>
+      <c r="J24" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K24" s="13"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2762,7 +2821,9 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="16"/>
+      <c r="J25" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K25" s="13"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -3004,7 +3065,9 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="16"/>
+      <c r="J32" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K32" s="13"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -3072,7 +3135,9 @@
       <c r="G34" s="45"/>
       <c r="H34" s="15"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="16"/>
+      <c r="J34" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K34" s="13"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -3340,7 +3405,9 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="16"/>
+      <c r="J43" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K43" s="13"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -3376,7 +3443,9 @@
       </c>
       <c r="H44" s="47"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="16"/>
+      <c r="J44" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K44" s="13"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -3574,7 +3643,9 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="I49" s="13"/>
-      <c r="J49" s="16"/>
+      <c r="J49" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K49" s="13"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -3598,7 +3669,9 @@
       <c r="G50" s="14"/>
       <c r="H50" s="19"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="16"/>
+      <c r="J50" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K50" s="13"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -3634,7 +3707,9 @@
       </c>
       <c r="H51" s="52"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="15"/>
+      <c r="J51" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K51" s="13"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -3750,7 +3825,9 @@
       </c>
       <c r="H54" s="52"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="15"/>
+      <c r="J54" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K54" s="13"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -3818,7 +3895,9 @@
       <c r="G56" s="50"/>
       <c r="H56" s="52"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="15"/>
+      <c r="J56" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K56" s="13"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -3888,7 +3967,9 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="I58" s="13"/>
-      <c r="J58" s="15"/>
+      <c r="J58" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K58" s="13"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -3918,7 +3999,9 @@
         <v>6.25E-2</v>
       </c>
       <c r="I59" s="13"/>
-      <c r="J59" s="15"/>
+      <c r="J59" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K59" s="13"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -3986,7 +4069,9 @@
       <c r="G61" s="50"/>
       <c r="H61" s="52"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="15"/>
+      <c r="J61" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K61" s="13"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -4024,7 +4109,9 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="I62" s="13"/>
-      <c r="J62" s="15"/>
+      <c r="J62" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K62" s="13"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -4052,7 +4139,9 @@
       <c r="G63" s="50"/>
       <c r="H63" s="52"/>
       <c r="I63" s="13"/>
-      <c r="J63" s="15"/>
+      <c r="J63" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K63" s="13"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -4080,7 +4169,9 @@
       <c r="G64" s="50"/>
       <c r="H64" s="52"/>
       <c r="I64" s="13"/>
-      <c r="J64" s="15"/>
+      <c r="J64" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K64" s="13"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4108,7 +4199,9 @@
       <c r="G65" s="50"/>
       <c r="H65" s="52"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="15"/>
+      <c r="J65" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K65" s="13"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -4352,7 +4445,9 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
       <c r="I73" s="13"/>
-      <c r="J73" s="15"/>
+      <c r="J73" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K73" s="13"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -4376,7 +4471,9 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
       <c r="I74" s="13"/>
-      <c r="J74" s="15"/>
+      <c r="J74" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K74" s="13"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -4412,7 +4509,9 @@
       </c>
       <c r="H75" s="54"/>
       <c r="I75" s="13"/>
-      <c r="J75" s="15"/>
+      <c r="J75" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K75" s="13"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -4440,7 +4539,9 @@
       <c r="G76" s="45"/>
       <c r="H76" s="46"/>
       <c r="I76" s="13"/>
-      <c r="J76" s="15"/>
+      <c r="J76" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K76" s="13"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -4676,7 +4777,9 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="I82" s="13"/>
-      <c r="J82" s="15"/>
+      <c r="J82" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K82" s="13"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -4940,7 +5043,9 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
       <c r="I89" s="13"/>
-      <c r="J89" s="15"/>
+      <c r="J89" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K89" s="13"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -4976,7 +5081,9 @@
       </c>
       <c r="H90" s="59"/>
       <c r="I90" s="13"/>
-      <c r="J90" s="15"/>
+      <c r="J90" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K90" s="13"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -5012,7 +5119,9 @@
       </c>
       <c r="H91" s="60"/>
       <c r="I91" s="13"/>
-      <c r="J91" s="15"/>
+      <c r="J91" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K91" s="13"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -5168,7 +5277,9 @@
       </c>
       <c r="H95" s="60"/>
       <c r="I95" s="13"/>
-      <c r="J95" s="15"/>
+      <c r="J95" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K95" s="13"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -5324,7 +5435,9 @@
       </c>
       <c r="H99" s="59"/>
       <c r="I99" s="13"/>
-      <c r="J99" s="15"/>
+      <c r="J99" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K99" s="13"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
@@ -5402,7 +5515,9 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="I101" s="13"/>
-      <c r="J101" s="15"/>
+      <c r="J101" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K101" s="13"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -5441,7 +5556,7 @@
       </c>
       <c r="I102" s="13"/>
       <c r="J102" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K102" s="13"/>
       <c r="L102" s="2"/>
@@ -5476,10 +5591,12 @@
       <c r="G103" s="58">
         <v>45060</v>
       </c>
-      <c r="H103" s="59"/>
+      <c r="H103" s="60">
+        <v>0.25</v>
+      </c>
       <c r="I103" s="13"/>
       <c r="J103" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K103" s="13"/>
       <c r="L103" s="2"/>
@@ -5517,7 +5634,7 @@
       <c r="H104" s="59"/>
       <c r="I104" s="13"/>
       <c r="J104" s="15" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="K104" s="13"/>
       <c r="L104" s="2"/>
@@ -5555,7 +5672,7 @@
       <c r="H105" s="59"/>
       <c r="I105" s="13"/>
       <c r="J105" s="15" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="K105" s="13"/>
       <c r="L105" s="2"/>
@@ -5580,7 +5697,9 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
       <c r="I106" s="13"/>
-      <c r="J106" s="15"/>
+      <c r="J106" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K106" s="13"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
@@ -5604,7 +5723,9 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
       <c r="I107" s="13"/>
-      <c r="J107" s="15"/>
+      <c r="J107" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="K107" s="13"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
@@ -5628,7 +5749,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
+      <c r="J108" s="77"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
@@ -5641,6 +5762,204 @@
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J109" s="77"/>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J110" s="77"/>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J111" s="77"/>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J112" s="77"/>
+    </row>
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J113" s="77"/>
+    </row>
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J114" s="77"/>
+    </row>
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J115" s="77"/>
+    </row>
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J116" s="77"/>
+    </row>
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J117" s="77"/>
+    </row>
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J118" s="77"/>
+    </row>
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J119" s="77"/>
+    </row>
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J120" s="77"/>
+    </row>
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J121" s="77"/>
+    </row>
+    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J122" s="77"/>
+    </row>
+    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J123" s="77"/>
+    </row>
+    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J124" s="77"/>
+    </row>
+    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J125" s="77"/>
+    </row>
+    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J126" s="77"/>
+    </row>
+    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J127" s="77"/>
+    </row>
+    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J128" s="77"/>
+    </row>
+    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J129" s="77"/>
+    </row>
+    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J130" s="77"/>
+    </row>
+    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J131" s="77"/>
+    </row>
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J132" s="77"/>
+    </row>
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J133" s="77"/>
+    </row>
+    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J134" s="77"/>
+    </row>
+    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J135" s="77"/>
+    </row>
+    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J136" s="77"/>
+    </row>
+    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J137" s="77"/>
+    </row>
+    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J138" s="77"/>
+    </row>
+    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J139" s="77"/>
+    </row>
+    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J140" s="77"/>
+    </row>
+    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J141" s="77"/>
+    </row>
+    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J142" s="77"/>
+    </row>
+    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J143" s="77"/>
+    </row>
+    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J144" s="77"/>
+    </row>
+    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J145" s="77"/>
+    </row>
+    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J146" s="77"/>
+    </row>
+    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J147" s="77"/>
+    </row>
+    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J148" s="77"/>
+    </row>
+    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J149" s="77"/>
+    </row>
+    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J150" s="77"/>
+    </row>
+    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J151" s="77"/>
+    </row>
+    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J152" s="77"/>
+    </row>
+    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J153" s="77"/>
+    </row>
+    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J154" s="77"/>
+    </row>
+    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J155" s="77"/>
+    </row>
+    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J156" s="77"/>
+    </row>
+    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J157" s="77"/>
+    </row>
+    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J158" s="77"/>
+    </row>
+    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J159" s="77"/>
+    </row>
+    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J160" s="77"/>
+    </row>
+    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J161" s="77"/>
+    </row>
+    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J162" s="77"/>
+    </row>
+    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J163" s="77"/>
+    </row>
+    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J164" s="77"/>
+    </row>
+    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J165" s="77"/>
+    </row>
+    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J166" s="77"/>
+    </row>
+    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J167" s="77"/>
+    </row>
+    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J168" s="77"/>
+    </row>
+    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J169" s="77"/>
+    </row>
+    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J170" s="77"/>
+    </row>
+    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J171" s="77"/>
+    </row>
+    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J172" s="77"/>
+    </row>
+    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J173" s="77"/>
+    </row>
+    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J174" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -5668,16 +5987,21 @@
     <mergeCell ref="I14:I16"/>
   </mergeCells>
   <conditionalFormatting sqref="J77">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J107">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Doing">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Doing">
       <formula>NOT(ISERROR(SEARCH("Doing",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J174">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Issue">
+      <formula>NOT(ISERROR(SEARCH("Issue",J17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
